--- a/참고자료/매입매출샘플(2018-12-17).xlsx
+++ b/참고자료/매입매출샘플(2018-12-17).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="매입" sheetId="6" r:id="rId3"/>
     <sheet name="매출" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="8" r:id="rId5"/>
+    <sheet name="거래처정보" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="iolist" localSheetId="0">Sheet1!$A$5:$H$495</definedName>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6939" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="1382">
   <si>
     <t xml:space="preserve"> 옥동자(초코)</t>
   </si>
@@ -3538,6 +3539,743 @@
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0113</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>0134</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0137</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>0139</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0142</t>
+  </si>
+  <si>
+    <t>0143</t>
+  </si>
+  <si>
+    <t>0144</t>
+  </si>
+  <si>
+    <t>0145</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>0147</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>0149</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>0155</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0157</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>0165</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0168</t>
+  </si>
+  <si>
+    <t>0169</t>
+  </si>
+  <si>
+    <t>0170</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0173</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>0178</t>
+  </si>
+  <si>
+    <t>0179</t>
+  </si>
+  <si>
+    <t>0180</t>
+  </si>
+  <si>
+    <t>0181</t>
+  </si>
+  <si>
+    <t>0182</t>
+  </si>
+  <si>
+    <t>0183</t>
+  </si>
+  <si>
+    <t>0184</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>0187</t>
+  </si>
+  <si>
+    <t>0188</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>0191</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>0193</t>
+  </si>
+  <si>
+    <t>0194</t>
+  </si>
+  <si>
+    <t>0195</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>0222</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>0225</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>0228</t>
+  </si>
+  <si>
+    <t>0229</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>0234</t>
+  </si>
+  <si>
+    <t>0235</t>
+  </si>
+  <si>
+    <t>0236</t>
   </si>
 </sst>
 </file>
@@ -3546,7 +4284,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -3776,7 +4514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3825,10 +4563,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4183,18 +4924,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
@@ -39246,7 +39987,7 @@
         <v>497</v>
       </c>
       <c r="I2" s="6">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I65" si="0">H2*G2</f>
         <v>32802</v>
       </c>
     </row>
@@ -39276,7 +40017,7 @@
         <v>245</v>
       </c>
       <c r="I3" s="6">
-        <f>H3*G3</f>
+        <f t="shared" si="0"/>
         <v>21805</v>
       </c>
     </row>
@@ -39306,7 +40047,7 @@
         <v>295</v>
       </c>
       <c r="I4" s="6">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>27730</v>
       </c>
     </row>
@@ -39336,7 +40077,7 @@
         <v>2745</v>
       </c>
       <c r="I5" s="6">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>238815</v>
       </c>
     </row>
@@ -39366,7 +40107,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -39396,7 +40137,7 @@
         <v>622</v>
       </c>
       <c r="I7" s="6">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>41052</v>
       </c>
     </row>
@@ -39426,7 +40167,7 @@
         <v>1885</v>
       </c>
       <c r="I8" s="6">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>188500</v>
       </c>
     </row>
@@ -39456,7 +40197,7 @@
         <v>491</v>
       </c>
       <c r="I9" s="6">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>41244</v>
       </c>
     </row>
@@ -39486,7 +40227,7 @@
         <v>591</v>
       </c>
       <c r="I10" s="6">
-        <f>H10*G10</f>
+        <f t="shared" si="0"/>
         <v>46098</v>
       </c>
     </row>
@@ -39516,7 +40257,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <f>H11*G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -39546,7 +40287,7 @@
         <v>8240</v>
       </c>
       <c r="I12" s="6">
-        <f>H12*G12</f>
+        <f t="shared" si="0"/>
         <v>601520</v>
       </c>
     </row>
@@ -39576,7 +40317,7 @@
         <v>1844</v>
       </c>
       <c r="I13" s="6">
-        <f>H13*G13</f>
+        <f t="shared" si="0"/>
         <v>164116</v>
       </c>
     </row>
@@ -39606,7 +40347,7 @@
         <v>409</v>
       </c>
       <c r="I14" s="6">
-        <f>H14*G14</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -39636,7 +40377,7 @@
         <v>2196</v>
       </c>
       <c r="I15" s="6">
-        <f>H15*G15</f>
+        <f t="shared" si="0"/>
         <v>171288</v>
       </c>
     </row>
@@ -39666,7 +40407,7 @@
         <v>655</v>
       </c>
       <c r="I16" s="6">
-        <f>H16*G16</f>
+        <f t="shared" si="0"/>
         <v>44540</v>
       </c>
     </row>
@@ -39696,7 +40437,7 @@
         <v>311</v>
       </c>
       <c r="I17" s="6">
-        <f>H17*G17</f>
+        <f t="shared" si="0"/>
         <v>24569</v>
       </c>
     </row>
@@ -39726,7 +40467,7 @@
         <v>436</v>
       </c>
       <c r="I18" s="6">
-        <f>H18*G18</f>
+        <f t="shared" si="0"/>
         <v>27904</v>
       </c>
     </row>
@@ -39756,7 +40497,7 @@
         <v>647</v>
       </c>
       <c r="I19" s="6">
-        <f>H19*G19</f>
+        <f t="shared" si="0"/>
         <v>38820</v>
       </c>
     </row>
@@ -39786,7 +40527,7 @@
         <v>2065</v>
       </c>
       <c r="I20" s="6">
-        <f>H20*G20</f>
+        <f t="shared" si="0"/>
         <v>115640</v>
       </c>
     </row>
@@ -39816,7 +40557,7 @@
         <v>887</v>
       </c>
       <c r="I21" s="6">
-        <f>H21*G21</f>
+        <f t="shared" si="0"/>
         <v>78056</v>
       </c>
     </row>
@@ -39846,7 +40587,7 @@
         <v>245</v>
       </c>
       <c r="I22" s="6">
-        <f>H22*G22</f>
+        <f t="shared" si="0"/>
         <v>12250</v>
       </c>
     </row>
@@ -39876,7 +40617,7 @@
         <v>1844</v>
       </c>
       <c r="I23" s="6">
-        <f>H23*G23</f>
+        <f t="shared" si="0"/>
         <v>141988</v>
       </c>
     </row>
@@ -39906,7 +40647,7 @@
         <v>286</v>
       </c>
       <c r="I24" s="6">
-        <f>H24*G24</f>
+        <f t="shared" si="0"/>
         <v>15444</v>
       </c>
     </row>
@@ -39936,7 +40677,7 @@
         <v>327</v>
       </c>
       <c r="I25" s="6">
-        <f>H25*G25</f>
+        <f t="shared" si="0"/>
         <v>18966</v>
       </c>
     </row>
@@ -39966,7 +40707,7 @@
         <v>436</v>
       </c>
       <c r="I26" s="6">
-        <f>H26*G26</f>
+        <f t="shared" si="0"/>
         <v>34008</v>
       </c>
     </row>
@@ -39996,7 +40737,7 @@
         <v>2049</v>
       </c>
       <c r="I27" s="6">
-        <f>H27*G27</f>
+        <f t="shared" si="0"/>
         <v>147528</v>
       </c>
     </row>
@@ -40026,7 +40767,7 @@
         <v>614</v>
       </c>
       <c r="I28" s="6">
-        <f>H28*G28</f>
+        <f t="shared" si="0"/>
         <v>59558</v>
       </c>
     </row>
@@ -40056,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6">
-        <f>H29*G29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -40086,7 +40827,7 @@
         <v>245</v>
       </c>
       <c r="I30" s="6">
-        <f>H30*G30</f>
+        <f t="shared" si="0"/>
         <v>24500</v>
       </c>
     </row>
@@ -40116,7 +40857,7 @@
         <v>655</v>
       </c>
       <c r="I31" s="6">
-        <f>H31*G31</f>
+        <f t="shared" si="0"/>
         <v>56985</v>
       </c>
     </row>
@@ -40146,7 +40887,7 @@
         <v>300</v>
       </c>
       <c r="I32" s="6">
-        <f>H32*G32</f>
+        <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
@@ -40176,7 +40917,7 @@
         <v>409</v>
       </c>
       <c r="I33" s="6">
-        <f>H33*G33</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -40206,7 +40947,7 @@
         <v>1311</v>
       </c>
       <c r="I34" s="6">
-        <f>H34*G34</f>
+        <f t="shared" si="0"/>
         <v>106191</v>
       </c>
     </row>
@@ -40236,7 +40977,7 @@
         <v>655</v>
       </c>
       <c r="I35" s="6">
-        <f>H35*G35</f>
+        <f t="shared" si="0"/>
         <v>60915</v>
       </c>
     </row>
@@ -40266,7 +41007,7 @@
         <v>384</v>
       </c>
       <c r="I36" s="6">
-        <f>H36*G36</f>
+        <f t="shared" si="0"/>
         <v>29952</v>
       </c>
     </row>
@@ -40296,7 +41037,7 @@
         <v>1647</v>
       </c>
       <c r="I37" s="6">
-        <f>H37*G37</f>
+        <f t="shared" si="0"/>
         <v>116937</v>
       </c>
     </row>
@@ -40326,7 +41067,7 @@
         <v>327</v>
       </c>
       <c r="I38" s="6">
-        <f>H38*G38</f>
+        <f t="shared" si="0"/>
         <v>17658</v>
       </c>
     </row>
@@ -40356,7 +41097,7 @@
         <v>655</v>
       </c>
       <c r="I39" s="6">
-        <f>H39*G39</f>
+        <f t="shared" si="0"/>
         <v>65500</v>
       </c>
     </row>
@@ -40386,7 +41127,7 @@
         <v>2745</v>
       </c>
       <c r="I40" s="6">
-        <f>H40*G40</f>
+        <f t="shared" si="0"/>
         <v>241560</v>
       </c>
     </row>
@@ -40416,7 +41157,7 @@
         <v>491</v>
       </c>
       <c r="I41" s="6">
-        <f>H41*G41</f>
+        <f t="shared" si="0"/>
         <v>34861</v>
       </c>
     </row>
@@ -40446,7 +41187,7 @@
         <v>311</v>
       </c>
       <c r="I42" s="6">
-        <f>H42*G42</f>
+        <f t="shared" si="0"/>
         <v>21459</v>
       </c>
     </row>
@@ -40476,7 +41217,7 @@
         <v>2049</v>
       </c>
       <c r="I43" s="6">
-        <f>H43*G43</f>
+        <f t="shared" si="0"/>
         <v>180312</v>
       </c>
     </row>
@@ -40506,7 +41247,7 @@
         <v>327</v>
       </c>
       <c r="I44" s="6">
-        <f>H44*G44</f>
+        <f t="shared" si="0"/>
         <v>22563</v>
       </c>
     </row>
@@ -40536,7 +41277,7 @@
         <v>655</v>
       </c>
       <c r="I45" s="6">
-        <f>H45*G45</f>
+        <f t="shared" si="0"/>
         <v>36025</v>
       </c>
     </row>
@@ -40566,7 +41307,7 @@
         <v>887</v>
       </c>
       <c r="I46" s="6">
-        <f>H46*G46</f>
+        <f t="shared" si="0"/>
         <v>79830</v>
       </c>
     </row>
@@ -40596,7 +41337,7 @@
         <v>650</v>
       </c>
       <c r="I47" s="6">
-        <f>H47*G47</f>
+        <f t="shared" si="0"/>
         <v>53300</v>
       </c>
     </row>
@@ -40626,7 +41367,7 @@
         <v>1844</v>
       </c>
       <c r="I48" s="6">
-        <f>H48*G48</f>
+        <f t="shared" si="0"/>
         <v>154896</v>
       </c>
     </row>
@@ -40656,7 +41397,7 @@
         <v>655</v>
       </c>
       <c r="I49" s="6">
-        <f>H49*G49</f>
+        <f t="shared" si="0"/>
         <v>62225</v>
       </c>
     </row>
@@ -40686,7 +41427,7 @@
         <v>573</v>
       </c>
       <c r="I50" s="6">
-        <f>H50*G50</f>
+        <f t="shared" si="0"/>
         <v>50997</v>
       </c>
     </row>
@@ -40716,7 +41457,7 @@
         <v>7377</v>
       </c>
       <c r="I51" s="6">
-        <f>H51*G51</f>
+        <f t="shared" si="0"/>
         <v>663930</v>
       </c>
     </row>
@@ -40746,7 +41487,7 @@
         <v>384</v>
       </c>
       <c r="I52" s="6">
-        <f>H52*G52</f>
+        <f t="shared" si="0"/>
         <v>29184</v>
       </c>
     </row>
@@ -40776,7 +41517,7 @@
         <v>204</v>
       </c>
       <c r="I53" s="6">
-        <f>H53*G53</f>
+        <f t="shared" si="0"/>
         <v>20400</v>
       </c>
     </row>
@@ -40806,7 +41547,7 @@
         <v>5778</v>
       </c>
       <c r="I54" s="6">
-        <f>H54*G54</f>
+        <f t="shared" si="0"/>
         <v>525798</v>
       </c>
     </row>
@@ -40836,7 +41577,7 @@
         <v>491</v>
       </c>
       <c r="I55" s="6">
-        <f>H55*G55</f>
+        <f t="shared" si="0"/>
         <v>43699</v>
       </c>
     </row>
@@ -40866,7 +41607,7 @@
         <v>1803</v>
       </c>
       <c r="I56" s="6">
-        <f>H56*G56</f>
+        <f t="shared" si="0"/>
         <v>97362</v>
       </c>
     </row>
@@ -40896,7 +41637,7 @@
         <v>901</v>
       </c>
       <c r="I57" s="6">
-        <f>H57*G57</f>
+        <f t="shared" si="0"/>
         <v>65773</v>
       </c>
     </row>
@@ -40926,7 +41667,7 @@
         <v>311</v>
       </c>
       <c r="I58" s="6">
-        <f>H58*G58</f>
+        <f t="shared" si="0"/>
         <v>22703</v>
       </c>
     </row>
@@ -40956,7 +41697,7 @@
         <v>819</v>
       </c>
       <c r="I59" s="6">
-        <f>H59*G59</f>
+        <f t="shared" si="0"/>
         <v>40950</v>
       </c>
     </row>
@@ -40986,7 +41727,7 @@
         <v>976</v>
       </c>
       <c r="I60" s="6">
-        <f>H60*G60</f>
+        <f t="shared" si="0"/>
         <v>53680</v>
       </c>
     </row>
@@ -41016,7 +41757,7 @@
         <v>286</v>
       </c>
       <c r="I61" s="6">
-        <f>H61*G61</f>
+        <f t="shared" si="0"/>
         <v>23166</v>
       </c>
     </row>
@@ -41046,7 +41787,7 @@
         <v>2622</v>
       </c>
       <c r="I62" s="6">
-        <f>H62*G62</f>
+        <f t="shared" si="0"/>
         <v>167808</v>
       </c>
     </row>
@@ -41076,7 +41817,7 @@
         <v>983</v>
       </c>
       <c r="I63" s="6">
-        <f>H63*G63</f>
+        <f t="shared" si="0"/>
         <v>96334</v>
       </c>
     </row>
@@ -41106,7 +41847,7 @@
         <v>2407</v>
       </c>
       <c r="I64" s="6">
-        <f>H64*G64</f>
+        <f t="shared" si="0"/>
         <v>149234</v>
       </c>
     </row>
@@ -41136,7 +41877,7 @@
         <v>409</v>
       </c>
       <c r="I65" s="6">
-        <f>H65*G65</f>
+        <f t="shared" si="0"/>
         <v>24131</v>
       </c>
     </row>
@@ -41166,7 +41907,7 @@
         <v>586</v>
       </c>
       <c r="I66" s="6">
-        <f>H66*G66</f>
+        <f t="shared" ref="I66:I129" si="1">H66*G66</f>
         <v>54498</v>
       </c>
     </row>
@@ -41196,7 +41937,7 @@
         <v>655</v>
       </c>
       <c r="I67" s="6">
-        <f>H67*G67</f>
+        <f t="shared" si="1"/>
         <v>47160</v>
       </c>
     </row>
@@ -41226,7 +41967,7 @@
         <v>344</v>
       </c>
       <c r="I68" s="6">
-        <f>H68*G68</f>
+        <f t="shared" si="1"/>
         <v>28208</v>
       </c>
     </row>
@@ -41256,7 +41997,7 @@
         <v>1844</v>
       </c>
       <c r="I69" s="6">
-        <f>H69*G69</f>
+        <f t="shared" si="1"/>
         <v>127236</v>
       </c>
     </row>
@@ -41286,7 +42027,7 @@
         <v>286</v>
       </c>
       <c r="I70" s="6">
-        <f>H70*G70</f>
+        <f t="shared" si="1"/>
         <v>23738</v>
       </c>
     </row>
@@ -41316,7 +42057,7 @@
         <v>655</v>
       </c>
       <c r="I71" s="6">
-        <f>H71*G71</f>
+        <f t="shared" si="1"/>
         <v>52400</v>
       </c>
     </row>
@@ -41346,7 +42087,7 @@
         <v>245</v>
       </c>
       <c r="I72" s="6">
-        <f>H72*G72</f>
+        <f t="shared" si="1"/>
         <v>20825</v>
       </c>
     </row>
@@ -41376,7 +42117,7 @@
         <v>311</v>
       </c>
       <c r="I73" s="6">
-        <f>H73*G73</f>
+        <f t="shared" si="1"/>
         <v>30789</v>
       </c>
     </row>
@@ -41406,7 +42147,7 @@
         <v>983</v>
       </c>
       <c r="I74" s="6">
-        <f>H74*G74</f>
+        <f t="shared" si="1"/>
         <v>95351</v>
       </c>
     </row>
@@ -41436,7 +42177,7 @@
         <v>901</v>
       </c>
       <c r="I75" s="6">
-        <f>H75*G75</f>
+        <f t="shared" si="1"/>
         <v>47753</v>
       </c>
     </row>
@@ -41466,7 +42207,7 @@
         <v>896</v>
       </c>
       <c r="I76" s="6">
-        <f>H76*G76</f>
+        <f t="shared" si="1"/>
         <v>89600</v>
       </c>
     </row>
@@ -41496,7 +42237,7 @@
         <v>1775</v>
       </c>
       <c r="I77" s="6">
-        <f>H77*G77</f>
+        <f t="shared" si="1"/>
         <v>136675</v>
       </c>
     </row>
@@ -41526,7 +42267,7 @@
         <v>1311</v>
       </c>
       <c r="I78" s="6">
-        <f>H78*G78</f>
+        <f t="shared" si="1"/>
         <v>115368</v>
       </c>
     </row>
@@ -41556,7 +42297,7 @@
         <v>1475</v>
       </c>
       <c r="I79" s="6">
-        <f>H79*G79</f>
+        <f t="shared" si="1"/>
         <v>116525</v>
       </c>
     </row>
@@ -41586,7 +42327,7 @@
         <v>1121</v>
       </c>
       <c r="I80" s="6">
-        <f>H80*G80</f>
+        <f t="shared" si="1"/>
         <v>85196</v>
       </c>
     </row>
@@ -41616,7 +42357,7 @@
         <v>655</v>
       </c>
       <c r="I81" s="6">
-        <f>H81*G81</f>
+        <f t="shared" si="1"/>
         <v>32750</v>
       </c>
     </row>
@@ -41646,7 +42387,7 @@
         <v>2065</v>
       </c>
       <c r="I82" s="6">
-        <f>H82*G82</f>
+        <f t="shared" si="1"/>
         <v>125965</v>
       </c>
     </row>
@@ -41676,7 +42417,7 @@
         <v>2196</v>
       </c>
       <c r="I83" s="6">
-        <f>H83*G83</f>
+        <f t="shared" si="1"/>
         <v>184464</v>
       </c>
     </row>
@@ -41706,7 +42447,7 @@
         <v>573</v>
       </c>
       <c r="I84" s="6">
-        <f>H84*G84</f>
+        <f t="shared" si="1"/>
         <v>41256</v>
       </c>
     </row>
@@ -41736,7 +42477,7 @@
         <v>386</v>
       </c>
       <c r="I85" s="6">
-        <f>H85*G85</f>
+        <f t="shared" si="1"/>
         <v>28950</v>
       </c>
     </row>
@@ -41766,7 +42507,7 @@
         <v>4918</v>
       </c>
       <c r="I86" s="6">
-        <f>H86*G86</f>
+        <f t="shared" si="1"/>
         <v>457374</v>
       </c>
     </row>
@@ -41796,7 +42537,7 @@
         <v>491</v>
       </c>
       <c r="I87" s="6">
-        <f>H87*G87</f>
+        <f t="shared" si="1"/>
         <v>48118</v>
       </c>
     </row>
@@ -41826,7 +42567,7 @@
         <v>1844</v>
       </c>
       <c r="I88" s="6">
-        <f>H88*G88</f>
+        <f t="shared" si="1"/>
         <v>182556</v>
       </c>
     </row>
@@ -41856,7 +42597,7 @@
         <v>655</v>
       </c>
       <c r="I89" s="6">
-        <f>H89*G89</f>
+        <f t="shared" si="1"/>
         <v>37335</v>
       </c>
     </row>
@@ -41886,7 +42627,7 @@
         <v>1639</v>
       </c>
       <c r="I90" s="6">
-        <f>H90*G90</f>
+        <f t="shared" si="1"/>
         <v>132759</v>
       </c>
     </row>
@@ -41916,7 +42657,7 @@
         <v>655</v>
       </c>
       <c r="I91" s="6">
-        <f>H91*G91</f>
+        <f t="shared" si="1"/>
         <v>40610</v>
       </c>
     </row>
@@ -41946,7 +42687,7 @@
         <v>1704</v>
       </c>
       <c r="I92" s="6">
-        <f>H92*G92</f>
+        <f t="shared" si="1"/>
         <v>127800</v>
       </c>
     </row>
@@ -41976,7 +42717,7 @@
         <v>860</v>
       </c>
       <c r="I93" s="6">
-        <f>H93*G93</f>
+        <f t="shared" si="1"/>
         <v>43860</v>
       </c>
     </row>
@@ -42006,7 +42747,7 @@
         <v>409</v>
       </c>
       <c r="I94" s="6">
-        <f>H94*G94</f>
+        <f t="shared" si="1"/>
         <v>36401</v>
       </c>
     </row>
@@ -42036,7 +42777,7 @@
         <v>1844</v>
       </c>
       <c r="I95" s="6">
-        <f>H95*G95</f>
+        <f t="shared" si="1"/>
         <v>106952</v>
       </c>
     </row>
@@ -42066,7 +42807,7 @@
         <v>327</v>
       </c>
       <c r="I96" s="6">
-        <f>H96*G96</f>
+        <f t="shared" si="1"/>
         <v>20274</v>
       </c>
     </row>
@@ -42096,7 +42837,7 @@
         <v>368</v>
       </c>
       <c r="I97" s="6">
-        <f>H97*G97</f>
+        <f t="shared" si="1"/>
         <v>30176</v>
       </c>
     </row>
@@ -42126,7 +42867,7 @@
         <v>1844</v>
       </c>
       <c r="I98" s="6">
-        <f>H98*G98</f>
+        <f t="shared" si="1"/>
         <v>119860</v>
       </c>
     </row>
@@ -42156,7 +42897,7 @@
         <v>614</v>
       </c>
       <c r="I99" s="6">
-        <f>H99*G99</f>
+        <f t="shared" si="1"/>
         <v>39910</v>
       </c>
     </row>
@@ -42186,7 +42927,7 @@
         <v>286</v>
       </c>
       <c r="I100" s="6">
-        <f>H100*G100</f>
+        <f t="shared" si="1"/>
         <v>27742</v>
       </c>
     </row>
@@ -42216,7 +42957,7 @@
         <v>737</v>
       </c>
       <c r="I101" s="6">
-        <f>H101*G101</f>
+        <f t="shared" si="1"/>
         <v>62645</v>
       </c>
     </row>
@@ -42246,7 +42987,7 @@
         <v>295</v>
       </c>
       <c r="I102" s="6">
-        <f>H102*G102</f>
+        <f t="shared" si="1"/>
         <v>22420</v>
       </c>
     </row>
@@ -42276,7 +43017,7 @@
         <v>411</v>
       </c>
       <c r="I103" s="6">
-        <f>H103*G103</f>
+        <f t="shared" si="1"/>
         <v>28770</v>
       </c>
     </row>
@@ -42306,7 +43047,7 @@
         <v>1803</v>
       </c>
       <c r="I104" s="6">
-        <f>H104*G104</f>
+        <f t="shared" si="1"/>
         <v>104574</v>
       </c>
     </row>
@@ -42336,7 +43077,7 @@
         <v>1647</v>
       </c>
       <c r="I105" s="6">
-        <f>H105*G105</f>
+        <f t="shared" si="1"/>
         <v>121878</v>
       </c>
     </row>
@@ -42366,7 +43107,7 @@
         <v>901</v>
       </c>
       <c r="I106" s="6">
-        <f>H106*G106</f>
+        <f t="shared" si="1"/>
         <v>76585</v>
       </c>
     </row>
@@ -42396,7 +43137,7 @@
         <v>1172</v>
       </c>
       <c r="I107" s="6">
-        <f>H107*G107</f>
+        <f t="shared" si="1"/>
         <v>89072</v>
       </c>
     </row>
@@ -42426,7 +43167,7 @@
         <v>322</v>
       </c>
       <c r="I108" s="6">
-        <f>H108*G108</f>
+        <f t="shared" si="1"/>
         <v>22540</v>
       </c>
     </row>
@@ -42456,7 +43197,7 @@
         <v>737</v>
       </c>
       <c r="I109" s="6">
-        <f>H109*G109</f>
+        <f t="shared" si="1"/>
         <v>48642</v>
       </c>
     </row>
@@ -42486,7 +43227,7 @@
         <v>622</v>
       </c>
       <c r="I110" s="6">
-        <f>H110*G110</f>
+        <f t="shared" si="1"/>
         <v>41052</v>
       </c>
     </row>
@@ -42516,7 +43257,7 @@
         <v>491</v>
       </c>
       <c r="I111" s="6">
-        <f>H111*G111</f>
+        <f t="shared" si="1"/>
         <v>32897</v>
       </c>
     </row>
@@ -42546,7 +43287,7 @@
         <v>709</v>
       </c>
       <c r="I112" s="6">
-        <f>H112*G112</f>
+        <f t="shared" si="1"/>
         <v>58138</v>
       </c>
     </row>
@@ -42576,7 +43317,7 @@
         <v>622</v>
       </c>
       <c r="I113" s="6">
-        <f>H113*G113</f>
+        <f t="shared" si="1"/>
         <v>53492</v>
       </c>
     </row>
@@ -42606,7 +43347,7 @@
         <v>512</v>
       </c>
       <c r="I114" s="6">
-        <f>H114*G114</f>
+        <f t="shared" si="1"/>
         <v>37376</v>
       </c>
     </row>
@@ -42636,7 +43377,7 @@
         <v>245</v>
       </c>
       <c r="I115" s="6">
-        <f>H115*G115</f>
+        <f t="shared" si="1"/>
         <v>24010</v>
       </c>
     </row>
@@ -42666,7 +43407,7 @@
         <v>549</v>
       </c>
       <c r="I116" s="6">
-        <f>H116*G116</f>
+        <f t="shared" si="1"/>
         <v>28548</v>
       </c>
     </row>
@@ -42696,7 +43437,7 @@
         <v>901</v>
       </c>
       <c r="I117" s="6">
-        <f>H117*G117</f>
+        <f t="shared" si="1"/>
         <v>54060</v>
       </c>
     </row>
@@ -42726,7 +43467,7 @@
         <v>651</v>
       </c>
       <c r="I118" s="6">
-        <f>H118*G118</f>
+        <f t="shared" si="1"/>
         <v>48174</v>
       </c>
     </row>
@@ -42756,7 +43497,7 @@
         <v>655</v>
       </c>
       <c r="I119" s="6">
-        <f>H119*G119</f>
+        <f t="shared" si="1"/>
         <v>62880</v>
       </c>
     </row>
@@ -42786,7 +43527,7 @@
         <v>7377</v>
       </c>
       <c r="I120" s="6">
-        <f>H120*G120</f>
+        <f t="shared" si="1"/>
         <v>413112</v>
       </c>
     </row>
@@ -42816,7 +43557,7 @@
         <v>573</v>
       </c>
       <c r="I121" s="6">
-        <f>H121*G121</f>
+        <f t="shared" si="1"/>
         <v>30942</v>
       </c>
     </row>
@@ -42846,7 +43587,7 @@
         <v>368</v>
       </c>
       <c r="I122" s="6">
-        <f>H122*G122</f>
+        <f t="shared" si="1"/>
         <v>26128</v>
       </c>
     </row>
@@ -42876,7 +43617,7 @@
         <v>491</v>
       </c>
       <c r="I123" s="6">
-        <f>H123*G123</f>
+        <f t="shared" si="1"/>
         <v>31915</v>
       </c>
     </row>
@@ -42906,7 +43647,7 @@
         <v>409</v>
       </c>
       <c r="I124" s="6">
-        <f>H124*G124</f>
+        <f t="shared" si="1"/>
         <v>31902</v>
       </c>
     </row>
@@ -42936,7 +43677,7 @@
         <v>352</v>
       </c>
       <c r="I125" s="6">
-        <f>H125*G125</f>
+        <f t="shared" si="1"/>
         <v>20064</v>
       </c>
     </row>
@@ -42966,7 +43707,7 @@
         <v>386</v>
       </c>
       <c r="I126" s="6">
-        <f>H126*G126</f>
+        <f t="shared" si="1"/>
         <v>26248</v>
       </c>
     </row>
@@ -42996,7 +43737,7 @@
         <v>591</v>
       </c>
       <c r="I127" s="6">
-        <f>H127*G127</f>
+        <f t="shared" si="1"/>
         <v>34278</v>
       </c>
     </row>
@@ -43026,7 +43767,7 @@
         <v>622</v>
       </c>
       <c r="I128" s="6">
-        <f>H128*G128</f>
+        <f t="shared" si="1"/>
         <v>55358</v>
       </c>
     </row>
@@ -43056,7 +43797,7 @@
         <v>1844</v>
       </c>
       <c r="I129" s="6">
-        <f>H129*G129</f>
+        <f t="shared" si="1"/>
         <v>114328</v>
       </c>
     </row>
@@ -43086,7 +43827,7 @@
         <v>180</v>
       </c>
       <c r="I130" s="6">
-        <f>H130*G130</f>
+        <f t="shared" ref="I130:I193" si="2">H130*G130</f>
         <v>15660</v>
       </c>
     </row>
@@ -43116,7 +43857,7 @@
         <v>413</v>
       </c>
       <c r="I131" s="6">
-        <f>H131*G131</f>
+        <f t="shared" si="2"/>
         <v>30975</v>
       </c>
     </row>
@@ -43146,7 +43887,7 @@
         <v>622</v>
       </c>
       <c r="I132" s="6">
-        <f>H132*G132</f>
+        <f t="shared" si="2"/>
         <v>36698</v>
       </c>
     </row>
@@ -43176,7 +43917,7 @@
         <v>1549</v>
       </c>
       <c r="I133" s="6">
-        <f>H133*G133</f>
+        <f t="shared" si="2"/>
         <v>83646</v>
       </c>
     </row>
@@ -43206,7 +43947,7 @@
         <v>2704</v>
       </c>
       <c r="I134" s="6">
-        <f>H134*G134</f>
+        <f t="shared" si="2"/>
         <v>181168</v>
       </c>
     </row>
@@ -43236,7 +43977,7 @@
         <v>614</v>
       </c>
       <c r="I135" s="6">
-        <f>H135*G135</f>
+        <f t="shared" si="2"/>
         <v>37454</v>
       </c>
     </row>
@@ -43266,7 +44007,7 @@
         <v>1885</v>
       </c>
       <c r="I136" s="6">
-        <f>H136*G136</f>
+        <f t="shared" si="2"/>
         <v>137605</v>
       </c>
     </row>
@@ -43296,7 +44037,7 @@
         <v>1758</v>
       </c>
       <c r="I137" s="6">
-        <f>H137*G137</f>
+        <f t="shared" si="2"/>
         <v>167010</v>
       </c>
     </row>
@@ -43326,7 +44067,7 @@
         <v>272</v>
       </c>
       <c r="I138" s="6">
-        <f>H138*G138</f>
+        <f t="shared" si="2"/>
         <v>14144</v>
       </c>
     </row>
@@ -43356,7 +44097,7 @@
         <v>413</v>
       </c>
       <c r="I139" s="6">
-        <f>H139*G139</f>
+        <f t="shared" si="2"/>
         <v>39235</v>
       </c>
     </row>
@@ -43386,7 +44127,7 @@
         <v>450</v>
       </c>
       <c r="I140" s="6">
-        <f>H140*G140</f>
+        <f t="shared" si="2"/>
         <v>41850</v>
       </c>
     </row>
@@ -43416,7 +44157,7 @@
         <v>341</v>
       </c>
       <c r="I141" s="6">
-        <f>H141*G141</f>
+        <f t="shared" si="2"/>
         <v>26939</v>
       </c>
     </row>
@@ -43446,7 +44187,7 @@
         <v>286</v>
       </c>
       <c r="I142" s="6">
-        <f>H142*G142</f>
+        <f t="shared" si="2"/>
         <v>23452</v>
       </c>
     </row>
@@ -43476,7 +44217,7 @@
         <v>450</v>
       </c>
       <c r="I143" s="6">
-        <f>H143*G143</f>
+        <f t="shared" si="2"/>
         <v>35550</v>
       </c>
     </row>
@@ -43506,7 +44247,7 @@
         <v>1180</v>
       </c>
       <c r="I144" s="6">
-        <f>H144*G144</f>
+        <f t="shared" si="2"/>
         <v>102660</v>
       </c>
     </row>
@@ -43536,7 +44277,7 @@
         <v>1475</v>
       </c>
       <c r="I145" s="6">
-        <f>H145*G145</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -43566,7 +44307,7 @@
         <v>426</v>
       </c>
       <c r="I146" s="6">
-        <f>H146*G146</f>
+        <f t="shared" si="2"/>
         <v>34932</v>
       </c>
     </row>
@@ -43596,7 +44337,7 @@
         <v>614</v>
       </c>
       <c r="I147" s="6">
-        <f>H147*G147</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -43626,7 +44367,7 @@
         <v>9016</v>
       </c>
       <c r="I148" s="6">
-        <f>H148*G148</f>
+        <f t="shared" si="2"/>
         <v>892584</v>
       </c>
     </row>
@@ -43656,7 +44397,7 @@
         <v>491</v>
       </c>
       <c r="I149" s="6">
-        <f>H149*G149</f>
+        <f t="shared" si="2"/>
         <v>44190</v>
       </c>
     </row>
@@ -43686,7 +44427,7 @@
         <v>622</v>
       </c>
       <c r="I150" s="6">
-        <f>H150*G150</f>
+        <f t="shared" si="2"/>
         <v>53492</v>
       </c>
     </row>
@@ -43716,7 +44457,7 @@
         <v>327</v>
       </c>
       <c r="I151" s="6">
-        <f>H151*G151</f>
+        <f t="shared" si="2"/>
         <v>29430</v>
       </c>
     </row>
@@ -43746,7 +44487,7 @@
         <v>532</v>
       </c>
       <c r="I152" s="6">
-        <f>H152*G152</f>
+        <f t="shared" si="2"/>
         <v>52668</v>
       </c>
     </row>
@@ -43776,7 +44517,7 @@
         <v>327</v>
       </c>
       <c r="I153" s="6">
-        <f>H153*G153</f>
+        <f t="shared" si="2"/>
         <v>20601</v>
       </c>
     </row>
@@ -43806,7 +44547,7 @@
         <v>976</v>
       </c>
       <c r="I154" s="6">
-        <f>H154*G154</f>
+        <f t="shared" si="2"/>
         <v>78080</v>
       </c>
     </row>
@@ -43836,7 +44577,7 @@
         <v>1696</v>
       </c>
       <c r="I155" s="6">
-        <f>H155*G155</f>
+        <f t="shared" si="2"/>
         <v>117024</v>
       </c>
     </row>
@@ -43866,7 +44607,7 @@
         <v>1844</v>
       </c>
       <c r="I156" s="6">
-        <f>H156*G156</f>
+        <f t="shared" si="2"/>
         <v>158584</v>
       </c>
     </row>
@@ -43896,7 +44637,7 @@
         <v>1967</v>
       </c>
       <c r="I157" s="6">
-        <f>H157*G157</f>
+        <f t="shared" si="2"/>
         <v>121954</v>
       </c>
     </row>
@@ -43926,7 +44667,7 @@
         <v>1844</v>
       </c>
       <c r="I158" s="6">
-        <f>H158*G158</f>
+        <f t="shared" si="2"/>
         <v>171492</v>
       </c>
     </row>
@@ -43956,7 +44697,7 @@
         <v>1844</v>
       </c>
       <c r="I159" s="6">
-        <f>H159*G159</f>
+        <f t="shared" si="2"/>
         <v>130924</v>
       </c>
     </row>
@@ -43986,7 +44727,7 @@
         <v>819</v>
       </c>
       <c r="I160" s="6">
-        <f>H160*G160</f>
+        <f t="shared" si="2"/>
         <v>53235</v>
       </c>
     </row>
@@ -44016,7 +44757,7 @@
         <v>221</v>
       </c>
       <c r="I161" s="6">
-        <f>H161*G161</f>
+        <f t="shared" si="2"/>
         <v>15912</v>
       </c>
     </row>
@@ -44046,7 +44787,7 @@
         <v>386</v>
       </c>
       <c r="I162" s="6">
-        <f>H162*G162</f>
+        <f t="shared" si="2"/>
         <v>36670</v>
       </c>
     </row>
@@ -44076,7 +44817,7 @@
         <v>586</v>
       </c>
       <c r="I163" s="6">
-        <f>H163*G163</f>
+        <f t="shared" si="2"/>
         <v>39262</v>
       </c>
     </row>
@@ -44106,7 +44847,7 @@
         <v>436</v>
       </c>
       <c r="I164" s="6">
-        <f>H164*G164</f>
+        <f t="shared" si="2"/>
         <v>39676</v>
       </c>
     </row>
@@ -44136,7 +44877,7 @@
         <v>341</v>
       </c>
       <c r="I165" s="6">
-        <f>H165*G165</f>
+        <f t="shared" si="2"/>
         <v>30349</v>
       </c>
     </row>
@@ -44166,7 +44907,7 @@
         <v>413</v>
       </c>
       <c r="I166" s="6">
-        <f>H166*G166</f>
+        <f t="shared" si="2"/>
         <v>32627</v>
       </c>
     </row>
@@ -44196,7 +44937,7 @@
         <v>655</v>
       </c>
       <c r="I167" s="6">
-        <f>H167*G167</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -44226,7 +44967,7 @@
         <v>1844</v>
       </c>
       <c r="I168" s="6">
-        <f>H168*G168</f>
+        <f t="shared" si="2"/>
         <v>138300</v>
       </c>
     </row>
@@ -44256,7 +44997,7 @@
         <v>655</v>
       </c>
       <c r="I169" s="6">
-        <f>H169*G169</f>
+        <f t="shared" si="2"/>
         <v>41265</v>
       </c>
     </row>
@@ -44286,7 +45027,7 @@
         <v>386</v>
       </c>
       <c r="I170" s="6">
-        <f>H170*G170</f>
+        <f t="shared" si="2"/>
         <v>37828</v>
       </c>
     </row>
@@ -44316,7 +45057,7 @@
         <v>1147</v>
       </c>
       <c r="I171" s="6">
-        <f>H171*G171</f>
+        <f t="shared" si="2"/>
         <v>88319</v>
       </c>
     </row>
@@ -44346,7 +45087,7 @@
         <v>1844</v>
       </c>
       <c r="I172" s="6">
-        <f>H172*G172</f>
+        <f t="shared" si="2"/>
         <v>132768</v>
       </c>
     </row>
@@ -44376,7 +45117,7 @@
         <v>622</v>
       </c>
       <c r="I173" s="6">
-        <f>H173*G173</f>
+        <f t="shared" si="2"/>
         <v>36076</v>
       </c>
     </row>
@@ -44406,7 +45147,7 @@
         <v>1311</v>
       </c>
       <c r="I174" s="6">
-        <f>H174*G174</f>
+        <f t="shared" si="2"/>
         <v>112746</v>
       </c>
     </row>
@@ -44436,7 +45177,7 @@
         <v>614</v>
       </c>
       <c r="I175" s="6">
-        <f>H175*G175</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -44466,7 +45207,7 @@
         <v>1803</v>
       </c>
       <c r="I176" s="6">
-        <f>H176*G176</f>
+        <f t="shared" si="2"/>
         <v>133422</v>
       </c>
     </row>
@@ -44496,7 +45237,7 @@
         <v>1183</v>
       </c>
       <c r="I177" s="6">
-        <f>H177*G177</f>
+        <f t="shared" si="2"/>
         <v>92274</v>
       </c>
     </row>
@@ -44526,7 +45267,7 @@
         <v>1758</v>
       </c>
       <c r="I178" s="6">
-        <f>H178*G178</f>
+        <f t="shared" si="2"/>
         <v>103722</v>
       </c>
     </row>
@@ -44556,7 +45297,7 @@
         <v>655</v>
       </c>
       <c r="I179" s="6">
-        <f>H179*G179</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -44586,7 +45327,7 @@
         <v>6557</v>
       </c>
       <c r="I180" s="6">
-        <f>H180*G180</f>
+        <f t="shared" si="2"/>
         <v>380306</v>
       </c>
     </row>
@@ -44616,7 +45357,7 @@
         <v>13934</v>
       </c>
       <c r="I181" s="6">
-        <f>H181*G181</f>
+        <f t="shared" si="2"/>
         <v>1198324</v>
       </c>
     </row>
@@ -44646,7 +45387,7 @@
         <v>1647</v>
       </c>
       <c r="I182" s="6">
-        <f>H182*G182</f>
+        <f t="shared" si="2"/>
         <v>93879</v>
       </c>
     </row>
@@ -44676,7 +45417,7 @@
         <v>327</v>
       </c>
       <c r="I183" s="6">
-        <f>H183*G183</f>
+        <f t="shared" si="2"/>
         <v>16677</v>
       </c>
     </row>
@@ -44706,7 +45447,7 @@
         <v>651</v>
       </c>
       <c r="I184" s="6">
-        <f>H184*G184</f>
+        <f t="shared" si="2"/>
         <v>50127</v>
       </c>
     </row>
@@ -44736,7 +45477,7 @@
         <v>983</v>
       </c>
       <c r="I185" s="6">
-        <f>H185*G185</f>
+        <f t="shared" si="2"/>
         <v>84538</v>
       </c>
     </row>
@@ -44766,7 +45507,7 @@
         <v>1639</v>
       </c>
       <c r="I186" s="6">
-        <f>H186*G186</f>
+        <f t="shared" si="2"/>
         <v>111452</v>
       </c>
     </row>
@@ -44796,7 +45537,7 @@
         <v>1844</v>
       </c>
       <c r="I187" s="6">
-        <f>H187*G187</f>
+        <f t="shared" si="2"/>
         <v>173336</v>
       </c>
     </row>
@@ -44826,7 +45567,7 @@
         <v>409</v>
       </c>
       <c r="I188" s="6">
-        <f>H188*G188</f>
+        <f t="shared" si="2"/>
         <v>29039</v>
       </c>
     </row>
@@ -44856,7 +45597,7 @@
         <v>295</v>
       </c>
       <c r="I189" s="6">
-        <f>H189*G189</f>
+        <f t="shared" si="2"/>
         <v>20355</v>
       </c>
     </row>
@@ -44886,7 +45627,7 @@
         <v>587</v>
       </c>
       <c r="I190" s="6">
-        <f>H190*G190</f>
+        <f t="shared" si="2"/>
         <v>46373</v>
       </c>
     </row>
@@ -44916,7 +45657,7 @@
         <v>919</v>
       </c>
       <c r="I191" s="6">
-        <f>H191*G191</f>
+        <f t="shared" si="2"/>
         <v>83629</v>
       </c>
     </row>
@@ -44946,7 +45687,7 @@
         <v>491</v>
       </c>
       <c r="I192" s="6">
-        <f>H192*G192</f>
+        <f t="shared" si="2"/>
         <v>48609</v>
       </c>
     </row>
@@ -44976,7 +45717,7 @@
         <v>274</v>
       </c>
       <c r="I193" s="6">
-        <f>H193*G193</f>
+        <f t="shared" si="2"/>
         <v>26852</v>
       </c>
     </row>
@@ -45006,7 +45747,7 @@
         <v>524</v>
       </c>
       <c r="I194" s="6">
-        <f>H194*G194</f>
+        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
         <v>43492</v>
       </c>
     </row>
@@ -45036,7 +45777,7 @@
         <v>614</v>
       </c>
       <c r="I195" s="6">
-        <f>H195*G195</f>
+        <f t="shared" si="3"/>
         <v>34998</v>
       </c>
     </row>
@@ -45066,7 +45807,7 @@
         <v>341</v>
       </c>
       <c r="I196" s="6">
-        <f>H196*G196</f>
+        <f t="shared" si="3"/>
         <v>33759</v>
       </c>
     </row>
@@ -45096,7 +45837,7 @@
         <v>327</v>
       </c>
       <c r="I197" s="6">
-        <f>H197*G197</f>
+        <f t="shared" si="3"/>
         <v>27468</v>
       </c>
     </row>
@@ -45126,7 +45867,7 @@
         <v>368</v>
       </c>
       <c r="I198" s="6">
-        <f>H198*G198</f>
+        <f t="shared" si="3"/>
         <v>29440</v>
       </c>
     </row>
@@ -45156,7 +45897,7 @@
         <v>1465</v>
       </c>
       <c r="I199" s="6">
-        <f>H199*G199</f>
+        <f t="shared" si="3"/>
         <v>80575</v>
       </c>
     </row>
@@ -45186,7 +45927,7 @@
         <v>651</v>
       </c>
       <c r="I200" s="6">
-        <f>H200*G200</f>
+        <f t="shared" si="3"/>
         <v>46221</v>
       </c>
     </row>
@@ -45216,7 +45957,7 @@
         <v>1803</v>
       </c>
       <c r="I201" s="6">
-        <f>H201*G201</f>
+        <f t="shared" si="3"/>
         <v>124407</v>
       </c>
     </row>
@@ -45246,7 +45987,7 @@
         <v>2213</v>
       </c>
       <c r="I202" s="6">
-        <f>H202*G202</f>
+        <f t="shared" si="3"/>
         <v>148271</v>
       </c>
     </row>
@@ -45276,7 +46017,7 @@
         <v>573</v>
       </c>
       <c r="I203" s="6">
-        <f>H203*G203</f>
+        <f t="shared" si="3"/>
         <v>46986</v>
       </c>
     </row>
@@ -45306,7 +46047,7 @@
         <v>1696</v>
       </c>
       <c r="I204" s="6">
-        <f>H204*G204</f>
+        <f t="shared" si="3"/>
         <v>115328</v>
       </c>
     </row>
@@ -45336,7 +46077,7 @@
         <v>6557</v>
       </c>
       <c r="I205" s="6">
-        <f>H205*G205</f>
+        <f t="shared" si="3"/>
         <v>557345</v>
       </c>
     </row>
@@ -45366,7 +46107,7 @@
         <v>2459</v>
       </c>
       <c r="I206" s="6">
-        <f>H206*G206</f>
+        <f t="shared" si="3"/>
         <v>199179</v>
       </c>
     </row>
@@ -45396,7 +46137,7 @@
         <v>6557</v>
       </c>
       <c r="I207" s="6">
-        <f>H207*G207</f>
+        <f t="shared" si="3"/>
         <v>596687</v>
       </c>
     </row>
@@ -45426,7 +46167,7 @@
         <v>2065</v>
       </c>
       <c r="I208" s="6">
-        <f>H208*G208</f>
+        <f t="shared" si="3"/>
         <v>117705</v>
       </c>
     </row>
@@ -45456,7 +46197,7 @@
         <v>384</v>
       </c>
       <c r="I209" s="6">
-        <f>H209*G209</f>
+        <f t="shared" si="3"/>
         <v>34560</v>
       </c>
     </row>
@@ -45486,7 +46227,7 @@
         <v>368</v>
       </c>
       <c r="I210" s="6">
-        <f>H210*G210</f>
+        <f t="shared" si="3"/>
         <v>22080</v>
       </c>
     </row>
@@ -45516,7 +46257,7 @@
         <v>549</v>
       </c>
       <c r="I211" s="6">
-        <f>H211*G211</f>
+        <f t="shared" si="3"/>
         <v>53802</v>
       </c>
     </row>
@@ -45546,7 +46287,7 @@
         <v>591</v>
       </c>
       <c r="I212" s="6">
-        <f>H212*G212</f>
+        <f t="shared" si="3"/>
         <v>50826</v>
       </c>
     </row>
@@ -45576,7 +46317,7 @@
         <v>1844</v>
       </c>
       <c r="I213" s="6">
-        <f>H213*G213</f>
+        <f t="shared" si="3"/>
         <v>106952</v>
       </c>
     </row>
@@ -45606,7 +46347,7 @@
         <v>409</v>
       </c>
       <c r="I214" s="6">
-        <f>H214*G214</f>
+        <f t="shared" si="3"/>
         <v>20450</v>
       </c>
     </row>
@@ -45636,7 +46377,7 @@
         <v>555</v>
       </c>
       <c r="I215" s="6">
-        <f>H215*G215</f>
+        <f t="shared" si="3"/>
         <v>54945</v>
       </c>
     </row>
@@ -45666,7 +46407,7 @@
         <v>1844</v>
       </c>
       <c r="I216" s="6">
-        <f>H216*G216</f>
+        <f t="shared" si="3"/>
         <v>160428</v>
       </c>
     </row>
@@ -45696,7 +46437,7 @@
         <v>8240</v>
       </c>
       <c r="I217" s="6">
-        <f>H217*G217</f>
+        <f t="shared" si="3"/>
         <v>461440</v>
       </c>
     </row>
@@ -45726,7 +46467,7 @@
         <v>5327</v>
       </c>
       <c r="I218" s="6">
-        <f>H218*G218</f>
+        <f t="shared" si="3"/>
         <v>362236</v>
       </c>
     </row>
@@ -45756,7 +46497,7 @@
         <v>1549</v>
       </c>
       <c r="I219" s="6">
-        <f>H219*G219</f>
+        <f t="shared" si="3"/>
         <v>151802</v>
       </c>
     </row>
@@ -45786,7 +46527,7 @@
         <v>295</v>
       </c>
       <c r="I220" s="6">
-        <f>H220*G220</f>
+        <f t="shared" si="3"/>
         <v>19470</v>
       </c>
     </row>
@@ -45816,7 +46557,7 @@
         <v>327</v>
       </c>
       <c r="I221" s="6">
-        <f>H221*G221</f>
+        <f t="shared" si="3"/>
         <v>22563</v>
       </c>
     </row>
@@ -45846,7 +46587,7 @@
         <v>311</v>
       </c>
       <c r="I222" s="6">
-        <f>H222*G222</f>
+        <f t="shared" si="3"/>
         <v>27368</v>
       </c>
     </row>
@@ -45876,7 +46617,7 @@
         <v>450</v>
       </c>
       <c r="I223" s="6">
-        <f>H223*G223</f>
+        <f t="shared" si="3"/>
         <v>32400</v>
       </c>
     </row>
@@ -45906,7 +46647,7 @@
         <v>524</v>
       </c>
       <c r="I224" s="6">
-        <f>H224*G224</f>
+        <f t="shared" si="3"/>
         <v>44016</v>
       </c>
     </row>
@@ -45936,7 +46677,7 @@
         <v>311</v>
       </c>
       <c r="I225" s="6">
-        <f>H225*G225</f>
+        <f t="shared" si="3"/>
         <v>21459</v>
       </c>
     </row>
@@ -45966,7 +46707,7 @@
         <v>1721</v>
       </c>
       <c r="I226" s="6">
-        <f>H226*G226</f>
+        <f t="shared" si="3"/>
         <v>148006</v>
       </c>
     </row>
@@ -45996,7 +46737,7 @@
         <v>1434</v>
       </c>
       <c r="I227" s="6">
-        <f>H227*G227</f>
+        <f t="shared" si="3"/>
         <v>93210</v>
       </c>
     </row>
@@ -46026,7 +46767,7 @@
         <v>1885</v>
       </c>
       <c r="I228" s="6">
-        <f>H228*G228</f>
+        <f t="shared" si="3"/>
         <v>152685</v>
       </c>
     </row>
@@ -46056,7 +46797,7 @@
         <v>515</v>
       </c>
       <c r="I229" s="6">
-        <f>H229*G229</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
     </row>
@@ -46086,7 +46827,7 @@
         <v>591</v>
       </c>
       <c r="I230" s="6">
-        <f>H230*G230</f>
+        <f t="shared" si="3"/>
         <v>54963</v>
       </c>
     </row>
@@ -46116,7 +46857,7 @@
         <v>9016</v>
       </c>
       <c r="I231" s="6">
-        <f>H231*G231</f>
+        <f t="shared" si="3"/>
         <v>549976</v>
       </c>
     </row>
@@ -46146,7 +46887,7 @@
         <v>491</v>
       </c>
       <c r="I232" s="6">
-        <f>H232*G232</f>
+        <f t="shared" si="3"/>
         <v>47136</v>
       </c>
     </row>
@@ -46176,7 +46917,7 @@
         <v>1639</v>
       </c>
       <c r="I233" s="6">
-        <f>H233*G233</f>
+        <f t="shared" si="3"/>
         <v>113091</v>
       </c>
     </row>
@@ -46265,7 +47006,7 @@
         <v>500</v>
       </c>
       <c r="I2" s="7">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I65" si="0">H2*G2</f>
         <v>25500</v>
       </c>
     </row>
@@ -46295,7 +47036,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="7">
-        <f>H3*G3</f>
+        <f t="shared" si="0"/>
         <v>91000</v>
       </c>
     </row>
@@ -46325,7 +47066,7 @@
         <v>1500</v>
       </c>
       <c r="I4" s="7">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>129000</v>
       </c>
     </row>
@@ -46355,7 +47096,7 @@
         <v>1500</v>
       </c>
       <c r="I5" s="7">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -46385,7 +47126,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="7">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>148000</v>
       </c>
     </row>
@@ -46415,7 +47156,7 @@
         <v>1500</v>
       </c>
       <c r="I7" s="7">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>87000</v>
       </c>
     </row>
@@ -46445,7 +47186,7 @@
         <v>700</v>
       </c>
       <c r="I8" s="7">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>56700</v>
       </c>
     </row>
@@ -46475,7 +47216,7 @@
         <v>700</v>
       </c>
       <c r="I9" s="7">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>67900</v>
       </c>
     </row>
@@ -46505,7 +47246,7 @@
         <v>2500</v>
       </c>
       <c r="I10" s="7">
-        <f>H10*G10</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
@@ -46535,7 +47276,7 @@
         <v>700</v>
       </c>
       <c r="I11" s="7">
-        <f>H11*G11</f>
+        <f t="shared" si="0"/>
         <v>66500</v>
       </c>
     </row>
@@ -46565,7 +47306,7 @@
         <v>1500</v>
       </c>
       <c r="I12" s="7">
-        <f>H12*G12</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -46595,7 +47336,7 @@
         <v>2500</v>
       </c>
       <c r="I13" s="7">
-        <f>H13*G13</f>
+        <f t="shared" si="0"/>
         <v>170000</v>
       </c>
     </row>
@@ -46625,7 +47366,7 @@
         <v>500</v>
       </c>
       <c r="I14" s="7">
-        <f>H14*G14</f>
+        <f t="shared" si="0"/>
         <v>49000</v>
       </c>
     </row>
@@ -46655,7 +47396,7 @@
         <v>1500</v>
       </c>
       <c r="I15" s="7">
-        <f>H15*G15</f>
+        <f t="shared" si="0"/>
         <v>76500</v>
       </c>
     </row>
@@ -46685,7 +47426,7 @@
         <v>12000</v>
       </c>
       <c r="I16" s="7">
-        <f>H16*G16</f>
+        <f t="shared" si="0"/>
         <v>900000</v>
       </c>
     </row>
@@ -46715,7 +47456,7 @@
         <v>12000</v>
       </c>
       <c r="I17" s="7">
-        <f>H17*G17</f>
+        <f t="shared" si="0"/>
         <v>696000</v>
       </c>
     </row>
@@ -46745,7 +47486,7 @@
         <v>800</v>
       </c>
       <c r="I18" s="7">
-        <f>H18*G18</f>
+        <f t="shared" si="0"/>
         <v>44000</v>
       </c>
     </row>
@@ -46775,7 +47516,7 @@
         <v>1000</v>
       </c>
       <c r="I19" s="7">
-        <f>H19*G19</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
@@ -46805,7 +47546,7 @@
         <v>2500</v>
       </c>
       <c r="I20" s="7">
-        <f>H20*G20</f>
+        <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
@@ -46835,7 +47576,7 @@
         <v>1000</v>
       </c>
       <c r="I21" s="7">
-        <f>H21*G21</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
     </row>
@@ -46865,7 +47606,7 @@
         <v>1200</v>
       </c>
       <c r="I22" s="7">
-        <f>H22*G22</f>
+        <f t="shared" si="0"/>
         <v>85200</v>
       </c>
     </row>
@@ -46895,7 +47636,7 @@
         <v>1800</v>
       </c>
       <c r="I23" s="7">
-        <f>H23*G23</f>
+        <f t="shared" si="0"/>
         <v>171000</v>
       </c>
     </row>
@@ -46925,7 +47666,7 @@
         <v>1500</v>
       </c>
       <c r="I24" s="7">
-        <f>H24*G24</f>
+        <f t="shared" si="0"/>
         <v>145500</v>
       </c>
     </row>
@@ -46955,7 +47696,7 @@
         <v>700</v>
       </c>
       <c r="I25" s="7">
-        <f>H25*G25</f>
+        <f t="shared" si="0"/>
         <v>44100</v>
       </c>
     </row>
@@ -46985,7 +47726,7 @@
         <v>1500</v>
       </c>
       <c r="I26" s="7">
-        <f>H26*G26</f>
+        <f t="shared" si="0"/>
         <v>78000</v>
       </c>
     </row>
@@ -47015,7 +47756,7 @@
         <v>1500</v>
       </c>
       <c r="I27" s="7">
-        <f>H27*G27</f>
+        <f t="shared" si="0"/>
         <v>88500</v>
       </c>
     </row>
@@ -47045,7 +47786,7 @@
         <v>500</v>
       </c>
       <c r="I28" s="7">
-        <f>H28*G28</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -47075,7 +47816,7 @@
         <v>700</v>
       </c>
       <c r="I29" s="7">
-        <f>H29*G29</f>
+        <f t="shared" si="0"/>
         <v>46900</v>
       </c>
     </row>
@@ -47105,7 +47846,7 @@
         <v>2500</v>
       </c>
       <c r="I30" s="7">
-        <f>H30*G30</f>
+        <f t="shared" si="0"/>
         <v>202500</v>
       </c>
     </row>
@@ -47135,7 +47876,7 @@
         <v>2000</v>
       </c>
       <c r="I31" s="7">
-        <f>H31*G31</f>
+        <f t="shared" si="0"/>
         <v>124000</v>
       </c>
     </row>
@@ -47165,7 +47906,7 @@
         <v>1500</v>
       </c>
       <c r="I32" s="7">
-        <f>H32*G32</f>
+        <f t="shared" si="0"/>
         <v>126000</v>
       </c>
     </row>
@@ -47195,7 +47936,7 @@
         <v>1500</v>
       </c>
       <c r="I33" s="7">
-        <f>H33*G33</f>
+        <f t="shared" si="0"/>
         <v>135000</v>
       </c>
     </row>
@@ -47225,7 +47966,7 @@
         <v>1000</v>
       </c>
       <c r="I34" s="7">
-        <f>H34*G34</f>
+        <f t="shared" si="0"/>
         <v>57000</v>
       </c>
     </row>
@@ -47255,7 +47996,7 @@
         <v>1500</v>
       </c>
       <c r="I35" s="7">
-        <f>H35*G35</f>
+        <f t="shared" si="0"/>
         <v>91500</v>
       </c>
     </row>
@@ -47285,7 +48026,7 @@
         <v>10000</v>
       </c>
       <c r="I36" s="7">
-        <f>H36*G36</f>
+        <f t="shared" si="0"/>
         <v>680000</v>
       </c>
     </row>
@@ -47315,7 +48056,7 @@
         <v>900</v>
       </c>
       <c r="I37" s="7">
-        <f>H37*G37</f>
+        <f t="shared" si="0"/>
         <v>68400</v>
       </c>
     </row>
@@ -47345,7 +48086,7 @@
         <v>1500</v>
       </c>
       <c r="I38" s="7">
-        <f>H38*G38</f>
+        <f t="shared" si="0"/>
         <v>94500</v>
       </c>
     </row>
@@ -47375,7 +48116,7 @@
         <v>3000</v>
       </c>
       <c r="I39" s="7">
-        <f>H39*G39</f>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
@@ -47405,7 +48146,7 @@
         <v>3000</v>
       </c>
       <c r="I40" s="7">
-        <f>H40*G40</f>
+        <f t="shared" si="0"/>
         <v>204000</v>
       </c>
     </row>
@@ -47435,7 +48176,7 @@
         <v>2000</v>
       </c>
       <c r="I41" s="7">
-        <f>H41*G41</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
@@ -47465,7 +48206,7 @@
         <v>700</v>
       </c>
       <c r="I42" s="7">
-        <f>H42*G42</f>
+        <f t="shared" si="0"/>
         <v>59500</v>
       </c>
     </row>
@@ -47495,7 +48236,7 @@
         <v>2000</v>
       </c>
       <c r="I43" s="7">
-        <f>H43*G43</f>
+        <f t="shared" si="0"/>
         <v>106000</v>
       </c>
     </row>
@@ -47525,7 +48266,7 @@
         <v>1500</v>
       </c>
       <c r="I44" s="7">
-        <f>H44*G44</f>
+        <f t="shared" si="0"/>
         <v>108000</v>
       </c>
     </row>
@@ -47555,7 +48296,7 @@
         <v>1500</v>
       </c>
       <c r="I45" s="7">
-        <f>H45*G45</f>
+        <f t="shared" si="0"/>
         <v>103500</v>
       </c>
     </row>
@@ -47585,7 +48326,7 @@
         <v>500</v>
       </c>
       <c r="I46" s="7">
-        <f>H46*G46</f>
+        <f t="shared" si="0"/>
         <v>49500</v>
       </c>
     </row>
@@ -47615,7 +48356,7 @@
         <v>1000</v>
       </c>
       <c r="I47" s="7">
-        <f>H47*G47</f>
+        <f t="shared" si="0"/>
         <v>73000</v>
       </c>
     </row>
@@ -47645,7 +48386,7 @@
         <v>1500</v>
       </c>
       <c r="I48" s="7">
-        <f>H48*G48</f>
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
@@ -47675,7 +48416,7 @@
         <v>1500</v>
       </c>
       <c r="I49" s="7">
-        <f>H49*G49</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -47705,7 +48446,7 @@
         <v>2000</v>
       </c>
       <c r="I50" s="7">
-        <f>H50*G50</f>
+        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
@@ -47735,7 +48476,7 @@
         <v>2500</v>
       </c>
       <c r="I51" s="7">
-        <f>H51*G51</f>
+        <f t="shared" si="0"/>
         <v>190000</v>
       </c>
     </row>
@@ -47765,7 +48506,7 @@
         <v>1200</v>
       </c>
       <c r="I52" s="7">
-        <f>H52*G52</f>
+        <f t="shared" si="0"/>
         <v>82800</v>
       </c>
     </row>
@@ -47795,7 +48536,7 @@
         <v>3000</v>
       </c>
       <c r="I53" s="7">
-        <f>H53*G53</f>
+        <f t="shared" si="0"/>
         <v>291000</v>
       </c>
     </row>
@@ -47825,7 +48566,7 @@
         <v>5000</v>
       </c>
       <c r="I54" s="7">
-        <f>H54*G54</f>
+        <f t="shared" si="0"/>
         <v>285000</v>
       </c>
     </row>
@@ -47855,7 +48596,7 @@
         <v>700</v>
       </c>
       <c r="I55" s="7">
-        <f>H55*G55</f>
+        <f t="shared" si="0"/>
         <v>55300</v>
       </c>
     </row>
@@ -47885,7 +48626,7 @@
         <v>1500</v>
       </c>
       <c r="I56" s="7">
-        <f>H56*G56</f>
+        <f t="shared" si="0"/>
         <v>93000</v>
       </c>
     </row>
@@ -47915,7 +48656,7 @@
         <v>2000</v>
       </c>
       <c r="I57" s="7">
-        <f>H57*G57</f>
+        <f t="shared" si="0"/>
         <v>174000</v>
       </c>
     </row>
@@ -47945,7 +48686,7 @@
         <v>4500</v>
       </c>
       <c r="I58" s="7">
-        <f>H58*G58</f>
+        <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
@@ -47975,7 +48716,7 @@
         <v>2300</v>
       </c>
       <c r="I59" s="7">
-        <f>H59*G59</f>
+        <f t="shared" si="0"/>
         <v>218500</v>
       </c>
     </row>
@@ -48005,7 +48746,7 @@
         <v>4000</v>
       </c>
       <c r="I60" s="7">
-        <f>H60*G60</f>
+        <f t="shared" si="0"/>
         <v>312000</v>
       </c>
     </row>
@@ -48035,7 +48776,7 @@
         <v>3000</v>
       </c>
       <c r="I61" s="7">
-        <f>H61*G61</f>
+        <f t="shared" si="0"/>
         <v>189000</v>
       </c>
     </row>
@@ -48065,7 +48806,7 @@
         <v>500</v>
       </c>
       <c r="I62" s="7">
-        <f>H62*G62</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -48095,7 +48836,7 @@
         <v>500</v>
       </c>
       <c r="I63" s="7">
-        <f>H63*G63</f>
+        <f t="shared" si="0"/>
         <v>47500</v>
       </c>
     </row>
@@ -48125,7 +48866,7 @@
         <v>1500</v>
       </c>
       <c r="I64" s="7">
-        <f>H64*G64</f>
+        <f t="shared" si="0"/>
         <v>102000</v>
       </c>
     </row>
@@ -48155,7 +48896,7 @@
         <v>1100</v>
       </c>
       <c r="I65" s="7">
-        <f>H65*G65</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -48185,7 +48926,7 @@
         <v>1000</v>
       </c>
       <c r="I66" s="7">
-        <f>H66*G66</f>
+        <f t="shared" ref="I66:I129" si="1">H66*G66</f>
         <v>70000</v>
       </c>
     </row>
@@ -48215,7 +48956,7 @@
         <v>1500</v>
       </c>
       <c r="I67" s="7">
-        <f>H67*G67</f>
+        <f t="shared" si="1"/>
         <v>142500</v>
       </c>
     </row>
@@ -48245,7 +48986,7 @@
         <v>500</v>
       </c>
       <c r="I68" s="7">
-        <f>H68*G68</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -48275,7 +49016,7 @@
         <v>2300</v>
       </c>
       <c r="I69" s="7">
-        <f>H69*G69</f>
+        <f t="shared" si="1"/>
         <v>158700</v>
       </c>
     </row>
@@ -48305,7 +49046,7 @@
         <v>1500</v>
       </c>
       <c r="I70" s="7">
-        <f>H70*G70</f>
+        <f t="shared" si="1"/>
         <v>84000</v>
       </c>
     </row>
@@ -48335,7 +49076,7 @@
         <v>10000</v>
       </c>
       <c r="I71" s="7">
-        <f>H71*G71</f>
+        <f t="shared" si="1"/>
         <v>950000</v>
       </c>
     </row>
@@ -48365,7 +49106,7 @@
         <v>1300</v>
       </c>
       <c r="I72" s="7">
-        <f>H72*G72</f>
+        <f t="shared" si="1"/>
         <v>76700</v>
       </c>
     </row>
@@ -48395,7 +49136,7 @@
         <v>1500</v>
       </c>
       <c r="I73" s="7">
-        <f>H73*G73</f>
+        <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
@@ -48425,7 +49166,7 @@
         <v>1000</v>
       </c>
       <c r="I74" s="7">
-        <f>H74*G74</f>
+        <f t="shared" si="1"/>
         <v>70000</v>
       </c>
     </row>
@@ -48455,7 +49196,7 @@
         <v>1800</v>
       </c>
       <c r="I75" s="7">
-        <f>H75*G75</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -48485,7 +49226,7 @@
         <v>500</v>
       </c>
       <c r="I76" s="7">
-        <f>H76*G76</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -48515,7 +49256,7 @@
         <v>6000</v>
       </c>
       <c r="I77" s="7">
-        <f>H77*G77</f>
+        <f t="shared" si="1"/>
         <v>348000</v>
       </c>
     </row>
@@ -48545,7 +49286,7 @@
         <v>500</v>
       </c>
       <c r="I78" s="7">
-        <f>H78*G78</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
     </row>
@@ -48575,7 +49316,7 @@
         <v>2500</v>
       </c>
       <c r="I79" s="7">
-        <f>H79*G79</f>
+        <f t="shared" si="1"/>
         <v>195000</v>
       </c>
     </row>
@@ -48605,7 +49346,7 @@
         <v>2800</v>
       </c>
       <c r="I80" s="7">
-        <f>H80*G80</f>
+        <f t="shared" si="1"/>
         <v>184800</v>
       </c>
     </row>
@@ -48635,7 +49376,7 @@
         <v>3800</v>
       </c>
       <c r="I81" s="7">
-        <f>H81*G81</f>
+        <f t="shared" si="1"/>
         <v>380000</v>
       </c>
     </row>
@@ -48665,7 +49406,7 @@
         <v>500</v>
       </c>
       <c r="I82" s="7">
-        <f>H82*G82</f>
+        <f t="shared" si="1"/>
         <v>28000</v>
       </c>
     </row>
@@ -48695,7 +49436,7 @@
         <v>2500</v>
       </c>
       <c r="I83" s="7">
-        <f>H83*G83</f>
+        <f t="shared" si="1"/>
         <v>197500</v>
       </c>
     </row>
@@ -48725,7 +49466,7 @@
         <v>4000</v>
       </c>
       <c r="I84" s="7">
-        <f>H84*G84</f>
+        <f t="shared" si="1"/>
         <v>316000</v>
       </c>
     </row>
@@ -48755,7 +49496,7 @@
         <v>800</v>
       </c>
       <c r="I85" s="7">
-        <f>H85*G85</f>
+        <f t="shared" si="1"/>
         <v>79200</v>
       </c>
     </row>
@@ -48785,7 +49526,7 @@
         <v>2500</v>
       </c>
       <c r="I86" s="7">
-        <f>H86*G86</f>
+        <f t="shared" si="1"/>
         <v>202500</v>
       </c>
     </row>
@@ -48815,7 +49556,7 @@
         <v>2500</v>
       </c>
       <c r="I87" s="7">
-        <f>H87*G87</f>
+        <f t="shared" si="1"/>
         <v>192500</v>
       </c>
     </row>
@@ -48845,7 +49586,7 @@
         <v>1500</v>
       </c>
       <c r="I88" s="7">
-        <f>H88*G88</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -48875,7 +49616,7 @@
         <v>1500</v>
       </c>
       <c r="I89" s="7">
-        <f>H89*G89</f>
+        <f t="shared" si="1"/>
         <v>115500</v>
       </c>
     </row>
@@ -48905,7 +49646,7 @@
         <v>700</v>
       </c>
       <c r="I90" s="7">
-        <f>H90*G90</f>
+        <f t="shared" si="1"/>
         <v>37100</v>
       </c>
     </row>
@@ -48935,7 +49676,7 @@
         <v>2000</v>
       </c>
       <c r="I91" s="7">
-        <f>H91*G91</f>
+        <f t="shared" si="1"/>
         <v>182000</v>
       </c>
     </row>
@@ -48965,7 +49706,7 @@
         <v>1000</v>
       </c>
       <c r="I92" s="7">
-        <f>H92*G92</f>
+        <f t="shared" si="1"/>
         <v>55000</v>
       </c>
     </row>
@@ -48995,7 +49736,7 @@
         <v>1000</v>
       </c>
       <c r="I93" s="7">
-        <f>H93*G93</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -49025,7 +49766,7 @@
         <v>700</v>
       </c>
       <c r="I94" s="7">
-        <f>H94*G94</f>
+        <f t="shared" si="1"/>
         <v>46200</v>
       </c>
     </row>
@@ -49055,7 +49796,7 @@
         <v>1500</v>
       </c>
       <c r="I95" s="7">
-        <f>H95*G95</f>
+        <f t="shared" si="1"/>
         <v>79500</v>
       </c>
     </row>
@@ -49085,7 +49826,7 @@
         <v>1000</v>
       </c>
       <c r="I96" s="7">
-        <f>H96*G96</f>
+        <f t="shared" si="1"/>
         <v>97000</v>
       </c>
     </row>
@@ -49115,7 +49856,7 @@
         <v>12000</v>
       </c>
       <c r="I97" s="7">
-        <f>H97*G97</f>
+        <f t="shared" si="1"/>
         <v>780000</v>
       </c>
     </row>
@@ -49145,7 +49886,7 @@
         <v>1000</v>
       </c>
       <c r="I98" s="7">
-        <f>H98*G98</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -49175,7 +49916,7 @@
         <v>500</v>
       </c>
       <c r="I99" s="7">
-        <f>H99*G99</f>
+        <f t="shared" si="1"/>
         <v>44500</v>
       </c>
     </row>
@@ -49205,7 +49946,7 @@
         <v>900</v>
       </c>
       <c r="I100" s="7">
-        <f>H100*G100</f>
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
     </row>
@@ -49235,7 +49976,7 @@
         <v>3000</v>
       </c>
       <c r="I101" s="7">
-        <f>H101*G101</f>
+        <f t="shared" si="1"/>
         <v>204000</v>
       </c>
     </row>
@@ -49265,7 +50006,7 @@
         <v>1100</v>
       </c>
       <c r="I102" s="7">
-        <f>H102*G102</f>
+        <f t="shared" si="1"/>
         <v>66000</v>
       </c>
     </row>
@@ -49295,7 +50036,7 @@
         <v>13000</v>
       </c>
       <c r="I103" s="7">
-        <f>H103*G103</f>
+        <f t="shared" si="1"/>
         <v>650000</v>
       </c>
     </row>
@@ -49325,7 +50066,7 @@
         <v>900</v>
       </c>
       <c r="I104" s="7">
-        <f>H104*G104</f>
+        <f t="shared" si="1"/>
         <v>53100</v>
       </c>
     </row>
@@ -49355,7 +50096,7 @@
         <v>2000</v>
       </c>
       <c r="I105" s="7">
-        <f>H105*G105</f>
+        <f t="shared" si="1"/>
         <v>104000</v>
       </c>
     </row>
@@ -49385,7 +50126,7 @@
         <v>1000</v>
       </c>
       <c r="I106" s="7">
-        <f>H106*G106</f>
+        <f t="shared" si="1"/>
         <v>54000</v>
       </c>
     </row>
@@ -49415,7 +50156,7 @@
         <v>1500</v>
       </c>
       <c r="I107" s="7">
-        <f>H107*G107</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -49445,7 +50186,7 @@
         <v>3000</v>
       </c>
       <c r="I108" s="7">
-        <f>H108*G108</f>
+        <f t="shared" si="1"/>
         <v>279000</v>
       </c>
     </row>
@@ -49475,7 +50216,7 @@
         <v>800</v>
       </c>
       <c r="I109" s="7">
-        <f>H109*G109</f>
+        <f t="shared" si="1"/>
         <v>43200</v>
       </c>
     </row>
@@ -49505,7 +50246,7 @@
         <v>5000</v>
       </c>
       <c r="I110" s="7">
-        <f>H110*G110</f>
+        <f t="shared" si="1"/>
         <v>305000</v>
       </c>
     </row>
@@ -49535,7 +50276,7 @@
         <v>1200</v>
       </c>
       <c r="I111" s="7">
-        <f>H111*G111</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -49565,7 +50306,7 @@
         <v>800</v>
       </c>
       <c r="I112" s="7">
-        <f>H112*G112</f>
+        <f t="shared" si="1"/>
         <v>56000</v>
       </c>
     </row>
@@ -49595,7 +50336,7 @@
         <v>2500</v>
       </c>
       <c r="I113" s="7">
-        <f>H113*G113</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -49625,7 +50366,7 @@
         <v>2500</v>
       </c>
       <c r="I114" s="7">
-        <f>H114*G114</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
@@ -49655,7 +50396,7 @@
         <v>1500</v>
       </c>
       <c r="I115" s="7">
-        <f>H115*G115</f>
+        <f t="shared" si="1"/>
         <v>141000</v>
       </c>
     </row>
@@ -49685,7 +50426,7 @@
         <v>2500</v>
       </c>
       <c r="I116" s="7">
-        <f>H116*G116</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -49715,7 +50456,7 @@
         <v>1500</v>
       </c>
       <c r="I117" s="7">
-        <f>H117*G117</f>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
@@ -49745,7 +50486,7 @@
         <v>500</v>
       </c>
       <c r="I118" s="7">
-        <f>H118*G118</f>
+        <f t="shared" si="1"/>
         <v>47000</v>
       </c>
     </row>
@@ -49775,7 +50516,7 @@
         <v>1000</v>
       </c>
       <c r="I119" s="7">
-        <f>H119*G119</f>
+        <f t="shared" si="1"/>
         <v>74000</v>
       </c>
     </row>
@@ -49805,7 +50546,7 @@
         <v>2500</v>
       </c>
       <c r="I120" s="7">
-        <f>H120*G120</f>
+        <f t="shared" si="1"/>
         <v>187500</v>
       </c>
     </row>
@@ -49835,7 +50576,7 @@
         <v>1800</v>
       </c>
       <c r="I121" s="7">
-        <f>H121*G121</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -49865,7 +50606,7 @@
         <v>1000</v>
       </c>
       <c r="I122" s="7">
-        <f>H122*G122</f>
+        <f t="shared" si="1"/>
         <v>87000</v>
       </c>
     </row>
@@ -49895,7 +50636,7 @@
         <v>9000</v>
       </c>
       <c r="I123" s="7">
-        <f>H123*G123</f>
+        <f t="shared" si="1"/>
         <v>468000</v>
       </c>
     </row>
@@ -49925,7 +50666,7 @@
         <v>2000</v>
       </c>
       <c r="I124" s="7">
-        <f>H124*G124</f>
+        <f t="shared" si="1"/>
         <v>128000</v>
       </c>
     </row>
@@ -49955,7 +50696,7 @@
         <v>600</v>
       </c>
       <c r="I125" s="7">
-        <f>H125*G125</f>
+        <f t="shared" si="1"/>
         <v>42600</v>
       </c>
     </row>
@@ -49985,7 +50726,7 @@
         <v>1500</v>
       </c>
       <c r="I126" s="7">
-        <f>H126*G126</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -50015,7 +50756,7 @@
         <v>2000</v>
       </c>
       <c r="I127" s="7">
-        <f>H127*G127</f>
+        <f t="shared" si="1"/>
         <v>156000</v>
       </c>
     </row>
@@ -50045,7 +50786,7 @@
         <v>800</v>
       </c>
       <c r="I128" s="7">
-        <f>H128*G128</f>
+        <f t="shared" si="1"/>
         <v>58400</v>
       </c>
     </row>
@@ -50075,7 +50816,7 @@
         <v>1200</v>
       </c>
       <c r="I129" s="7">
-        <f>H129*G129</f>
+        <f t="shared" si="1"/>
         <v>87600</v>
       </c>
     </row>
@@ -50105,7 +50846,7 @@
         <v>5500</v>
       </c>
       <c r="I130" s="7">
-        <f>H130*G130</f>
+        <f t="shared" ref="I130:I193" si="2">H130*G130</f>
         <v>352000</v>
       </c>
     </row>
@@ -50135,7 +50876,7 @@
         <v>1000</v>
       </c>
       <c r="I131" s="7">
-        <f>H131*G131</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -50165,7 +50906,7 @@
         <v>1000</v>
       </c>
       <c r="I132" s="7">
-        <f>H132*G132</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -50195,7 +50936,7 @@
         <v>2000</v>
       </c>
       <c r="I133" s="7">
-        <f>H133*G133</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -50225,7 +50966,7 @@
         <v>800</v>
       </c>
       <c r="I134" s="7">
-        <f>H134*G134</f>
+        <f t="shared" si="2"/>
         <v>68800</v>
       </c>
     </row>
@@ -50255,7 +50996,7 @@
         <v>1200</v>
       </c>
       <c r="I135" s="7">
-        <f>H135*G135</f>
+        <f t="shared" si="2"/>
         <v>61200</v>
       </c>
     </row>
@@ -50285,7 +51026,7 @@
         <v>2800</v>
       </c>
       <c r="I136" s="7">
-        <f>H136*G136</f>
+        <f t="shared" si="2"/>
         <v>263200</v>
       </c>
     </row>
@@ -50315,7 +51056,7 @@
         <v>1000</v>
       </c>
       <c r="I137" s="7">
-        <f>H137*G137</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
     </row>
@@ -50345,7 +51086,7 @@
         <v>5500</v>
       </c>
       <c r="I138" s="7">
-        <f>H138*G138</f>
+        <f t="shared" si="2"/>
         <v>390500</v>
       </c>
     </row>
@@ -50375,7 +51116,7 @@
         <v>900</v>
       </c>
       <c r="I139" s="7">
-        <f>H139*G139</f>
+        <f t="shared" si="2"/>
         <v>83700</v>
       </c>
     </row>
@@ -50405,7 +51146,7 @@
         <v>1000</v>
       </c>
       <c r="I140" s="7">
-        <f>H140*G140</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -50435,7 +51176,7 @@
         <v>2500</v>
       </c>
       <c r="I141" s="7">
-        <f>H141*G141</f>
+        <f t="shared" si="2"/>
         <v>242500</v>
       </c>
     </row>
@@ -50465,7 +51206,7 @@
         <v>8000</v>
       </c>
       <c r="I142" s="7">
-        <f>H142*G142</f>
+        <f t="shared" si="2"/>
         <v>576000</v>
       </c>
     </row>
@@ -50495,7 +51236,7 @@
         <v>2000</v>
       </c>
       <c r="I143" s="7">
-        <f>H143*G143</f>
+        <f t="shared" si="2"/>
         <v>146000</v>
       </c>
     </row>
@@ -50525,7 +51266,7 @@
         <v>1500</v>
       </c>
       <c r="I144" s="7">
-        <f>H144*G144</f>
+        <f t="shared" si="2"/>
         <v>133500</v>
       </c>
     </row>
@@ -50555,7 +51296,7 @@
         <v>1800</v>
       </c>
       <c r="I145" s="7">
-        <f>H145*G145</f>
+        <f t="shared" si="2"/>
         <v>147600</v>
       </c>
     </row>
@@ -50585,7 +51326,7 @@
         <v>500</v>
       </c>
       <c r="I146" s="7">
-        <f>H146*G146</f>
+        <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
@@ -50615,7 +51356,7 @@
         <v>1200</v>
       </c>
       <c r="I147" s="7">
-        <f>H147*G147</f>
+        <f t="shared" si="2"/>
         <v>73200</v>
       </c>
     </row>
@@ -50645,7 +51386,7 @@
         <v>2500</v>
       </c>
       <c r="I148" s="7">
-        <f>H148*G148</f>
+        <f t="shared" si="2"/>
         <v>237500</v>
       </c>
     </row>
@@ -50675,7 +51416,7 @@
         <v>600</v>
       </c>
       <c r="I149" s="7">
-        <f>H149*G149</f>
+        <f t="shared" si="2"/>
         <v>42000</v>
       </c>
     </row>
@@ -50705,7 +51446,7 @@
         <v>2500</v>
       </c>
       <c r="I150" s="7">
-        <f>H150*G150</f>
+        <f t="shared" si="2"/>
         <v>192500</v>
       </c>
     </row>
@@ -50735,7 +51476,7 @@
         <v>6000</v>
       </c>
       <c r="I151" s="7">
-        <f>H151*G151</f>
+        <f t="shared" si="2"/>
         <v>498000</v>
       </c>
     </row>
@@ -50765,7 +51506,7 @@
         <v>700</v>
       </c>
       <c r="I152" s="7">
-        <f>H152*G152</f>
+        <f t="shared" si="2"/>
         <v>50400</v>
       </c>
     </row>
@@ -50795,7 +51536,7 @@
         <v>1000</v>
       </c>
       <c r="I153" s="7">
-        <f>H153*G153</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -50825,7 +51566,7 @@
         <v>2500</v>
       </c>
       <c r="I154" s="7">
-        <f>H154*G154</f>
+        <f t="shared" si="2"/>
         <v>227500</v>
       </c>
     </row>
@@ -50855,7 +51596,7 @@
         <v>3000</v>
       </c>
       <c r="I155" s="7">
-        <f>H155*G155</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -50885,7 +51626,7 @@
         <v>3000</v>
       </c>
       <c r="I156" s="7">
-        <f>H156*G156</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -50915,7 +51656,7 @@
         <v>3000</v>
       </c>
       <c r="I157" s="7">
-        <f>H157*G157</f>
+        <f t="shared" si="2"/>
         <v>246000</v>
       </c>
     </row>
@@ -50945,7 +51686,7 @@
         <v>3000</v>
       </c>
       <c r="I158" s="7">
-        <f>H158*G158</f>
+        <f t="shared" si="2"/>
         <v>276000</v>
       </c>
     </row>
@@ -50975,7 +51716,7 @@
         <v>600</v>
       </c>
       <c r="I159" s="7">
-        <f>H159*G159</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -51005,7 +51746,7 @@
         <v>600</v>
       </c>
       <c r="I160" s="7">
-        <f>H160*G160</f>
+        <f t="shared" si="2"/>
         <v>30600</v>
       </c>
     </row>
@@ -51035,7 +51776,7 @@
         <v>1000</v>
       </c>
       <c r="I161" s="7">
-        <f>H161*G161</f>
+        <f t="shared" si="2"/>
         <v>83000</v>
       </c>
     </row>
@@ -51065,7 +51806,7 @@
         <v>2000</v>
       </c>
       <c r="I162" s="7">
-        <f>H162*G162</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -51095,7 +51836,7 @@
         <v>1800</v>
       </c>
       <c r="I163" s="7">
-        <f>H163*G163</f>
+        <f t="shared" si="2"/>
         <v>149400</v>
       </c>
     </row>
@@ -51125,7 +51866,7 @@
         <v>1800</v>
       </c>
       <c r="I164" s="7">
-        <f>H164*G164</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -51155,7 +51896,7 @@
         <v>600</v>
       </c>
       <c r="I165" s="7">
-        <f>H165*G165</f>
+        <f t="shared" si="2"/>
         <v>35400</v>
       </c>
     </row>
@@ -51185,7 +51926,7 @@
         <v>1000</v>
       </c>
       <c r="I166" s="7">
-        <f>H166*G166</f>
+        <f t="shared" si="2"/>
         <v>57000</v>
       </c>
     </row>
@@ -51215,7 +51956,7 @@
         <v>500</v>
       </c>
       <c r="I167" s="7">
-        <f>H167*G167</f>
+        <f t="shared" si="2"/>
         <v>41000</v>
       </c>
     </row>
@@ -51245,7 +51986,7 @@
         <v>2000</v>
       </c>
       <c r="I168" s="7">
-        <f>H168*G168</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -51275,7 +52016,7 @@
         <v>3000</v>
       </c>
       <c r="I169" s="7">
-        <f>H169*G169</f>
+        <f t="shared" si="2"/>
         <v>258000</v>
       </c>
     </row>
@@ -51305,7 +52046,7 @@
         <v>300</v>
       </c>
       <c r="I170" s="7">
-        <f>H170*G170</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
     </row>
@@ -51335,7 +52076,7 @@
         <v>20000</v>
       </c>
       <c r="I171" s="7">
-        <f>H171*G171</f>
+        <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
     </row>
@@ -51365,7 +52106,7 @@
         <v>12000</v>
       </c>
       <c r="I172" s="7">
-        <f>H172*G172</f>
+        <f t="shared" si="2"/>
         <v>1080000</v>
       </c>
     </row>
@@ -51395,7 +52136,7 @@
         <v>1000</v>
       </c>
       <c r="I173" s="7">
-        <f>H173*G173</f>
+        <f t="shared" si="2"/>
         <v>93000</v>
       </c>
     </row>
@@ -51425,7 +52166,7 @@
         <v>5000</v>
       </c>
       <c r="I174" s="7">
-        <f>H174*G174</f>
+        <f t="shared" si="2"/>
         <v>265000</v>
       </c>
     </row>
@@ -51455,7 +52196,7 @@
         <v>2500</v>
       </c>
       <c r="I175" s="7">
-        <f>H175*G175</f>
+        <f t="shared" si="2"/>
         <v>232500</v>
       </c>
     </row>
@@ -51485,7 +52226,7 @@
         <v>700</v>
       </c>
       <c r="I176" s="7">
-        <f>H176*G176</f>
+        <f t="shared" si="2"/>
         <v>65800</v>
       </c>
     </row>
@@ -51515,7 +52256,7 @@
         <v>800</v>
       </c>
       <c r="I177" s="7">
-        <f>H177*G177</f>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
@@ -51545,7 +52286,7 @@
         <v>1500</v>
       </c>
       <c r="I178" s="7">
-        <f>H178*G178</f>
+        <f t="shared" si="2"/>
         <v>142500</v>
       </c>
     </row>
@@ -51575,7 +52316,7 @@
         <v>1000</v>
       </c>
       <c r="I179" s="7">
-        <f>H179*G179</f>
+        <f t="shared" si="2"/>
         <v>52000</v>
       </c>
     </row>
@@ -51605,7 +52346,7 @@
         <v>4000</v>
       </c>
       <c r="I180" s="7">
-        <f>H180*G180</f>
+        <f t="shared" si="2"/>
         <v>212000</v>
       </c>
     </row>
@@ -51635,7 +52376,7 @@
         <v>2800</v>
       </c>
       <c r="I181" s="7">
-        <f>H181*G181</f>
+        <f t="shared" si="2"/>
         <v>232400</v>
       </c>
     </row>
@@ -51665,7 +52406,7 @@
         <v>1200</v>
       </c>
       <c r="I182" s="7">
-        <f>H182*G182</f>
+        <f t="shared" si="2"/>
         <v>116400</v>
       </c>
     </row>
@@ -51695,7 +52436,7 @@
         <v>2500</v>
       </c>
       <c r="I183" s="7">
-        <f>H183*G183</f>
+        <f t="shared" si="2"/>
         <v>147500</v>
       </c>
     </row>
@@ -51725,7 +52466,7 @@
         <v>1000</v>
       </c>
       <c r="I184" s="7">
-        <f>H184*G184</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -51755,7 +52496,7 @@
         <v>1500</v>
       </c>
       <c r="I185" s="7">
-        <f>H185*G185</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -51785,7 +52526,7 @@
         <v>1000</v>
       </c>
       <c r="I186" s="7">
-        <f>H186*G186</f>
+        <f t="shared" si="2"/>
         <v>97000</v>
       </c>
     </row>
@@ -51815,7 +52556,7 @@
         <v>1800</v>
       </c>
       <c r="I187" s="7">
-        <f>H187*G187</f>
+        <f t="shared" si="2"/>
         <v>171000</v>
       </c>
     </row>
@@ -51845,7 +52586,7 @@
         <v>2500</v>
       </c>
       <c r="I188" s="7">
-        <f>H188*G188</f>
+        <f t="shared" si="2"/>
         <v>160000</v>
       </c>
     </row>
@@ -51875,7 +52616,7 @@
         <v>500</v>
       </c>
       <c r="I189" s="7">
-        <f>H189*G189</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -51905,7 +52646,7 @@
         <v>1500</v>
       </c>
       <c r="I190" s="7">
-        <f>H190*G190</f>
+        <f t="shared" si="2"/>
         <v>112500</v>
       </c>
     </row>
@@ -51935,7 +52676,7 @@
         <v>1500</v>
       </c>
       <c r="I191" s="7">
-        <f>H191*G191</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -51965,7 +52706,7 @@
         <v>600</v>
       </c>
       <c r="I192" s="7">
-        <f>H192*G192</f>
+        <f t="shared" si="2"/>
         <v>39600</v>
       </c>
     </row>
@@ -51995,7 +52736,7 @@
         <v>1800</v>
       </c>
       <c r="I193" s="7">
-        <f>H193*G193</f>
+        <f t="shared" si="2"/>
         <v>99000</v>
       </c>
     </row>
@@ -52025,7 +52766,7 @@
         <v>4000</v>
       </c>
       <c r="I194" s="7">
-        <f>H194*G194</f>
+        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
         <v>340000</v>
       </c>
     </row>
@@ -52055,7 +52796,7 @@
         <v>1000</v>
       </c>
       <c r="I195" s="7">
-        <f>H195*G195</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -52085,7 +52826,7 @@
         <v>700</v>
       </c>
       <c r="I196" s="7">
-        <f>H196*G196</f>
+        <f t="shared" si="3"/>
         <v>59500</v>
       </c>
     </row>
@@ -52115,7 +52856,7 @@
         <v>800</v>
       </c>
       <c r="I197" s="7">
-        <f>H197*G197</f>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
     </row>
@@ -52145,7 +52886,7 @@
         <v>1000</v>
       </c>
       <c r="I198" s="7">
-        <f>H198*G198</f>
+        <f t="shared" si="3"/>
         <v>83000</v>
       </c>
     </row>
@@ -52175,7 +52916,7 @@
         <v>1500</v>
       </c>
       <c r="I199" s="7">
-        <f>H199*G199</f>
+        <f t="shared" si="3"/>
         <v>133500</v>
       </c>
     </row>
@@ -52205,7 +52946,7 @@
         <v>600</v>
       </c>
       <c r="I200" s="7">
-        <f>H200*G200</f>
+        <f t="shared" si="3"/>
         <v>43200</v>
       </c>
     </row>
@@ -52235,7 +52976,7 @@
         <v>500</v>
       </c>
       <c r="I201" s="7">
-        <f>H201*G201</f>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
     </row>
@@ -52265,7 +53006,7 @@
         <v>1500</v>
       </c>
       <c r="I202" s="7">
-        <f>H202*G202</f>
+        <f t="shared" si="3"/>
         <v>145500</v>
       </c>
     </row>
@@ -52295,7 +53036,7 @@
         <v>1000</v>
       </c>
       <c r="I203" s="7">
-        <f>H203*G203</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -52325,7 +53066,7 @@
         <v>1200</v>
       </c>
       <c r="I204" s="7">
-        <f>H204*G204</f>
+        <f t="shared" si="3"/>
         <v>114000</v>
       </c>
     </row>
@@ -52355,7 +53096,7 @@
         <v>2500</v>
       </c>
       <c r="I205" s="7">
-        <f>H205*G205</f>
+        <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
@@ -52385,7 +53126,7 @@
         <v>800</v>
       </c>
       <c r="I206" s="7">
-        <f>H206*G206</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -52415,7 +53156,7 @@
         <v>500</v>
       </c>
       <c r="I207" s="7">
-        <f>H207*G207</f>
+        <f t="shared" si="3"/>
         <v>46500</v>
       </c>
     </row>
@@ -52445,7 +53186,7 @@
         <v>2500</v>
       </c>
       <c r="I208" s="7">
-        <f>H208*G208</f>
+        <f t="shared" si="3"/>
         <v>132500</v>
       </c>
     </row>
@@ -52475,7 +53216,7 @@
         <v>1500</v>
       </c>
       <c r="I209" s="7">
-        <f>H209*G209</f>
+        <f t="shared" si="3"/>
         <v>129000</v>
       </c>
     </row>
@@ -52505,7 +53246,7 @@
         <v>18000</v>
       </c>
       <c r="I210" s="7">
-        <f>H210*G210</f>
+        <f t="shared" si="3"/>
         <v>1026000</v>
       </c>
     </row>
@@ -52535,7 +53276,7 @@
         <v>800</v>
       </c>
       <c r="I211" s="7">
-        <f>H211*G211</f>
+        <f t="shared" si="3"/>
         <v>75200</v>
       </c>
     </row>
@@ -52565,7 +53306,7 @@
         <v>500</v>
       </c>
       <c r="I212" s="7">
-        <f>H212*G212</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
     </row>
@@ -52595,7 +53336,7 @@
         <v>1200</v>
       </c>
       <c r="I213" s="7">
-        <f>H213*G213</f>
+        <f t="shared" si="3"/>
         <v>115200</v>
       </c>
     </row>
@@ -52625,7 +53366,7 @@
         <v>3000</v>
       </c>
       <c r="I214" s="7">
-        <f>H214*G214</f>
+        <f t="shared" si="3"/>
         <v>291000</v>
       </c>
     </row>
@@ -52655,7 +53396,7 @@
         <v>5000</v>
       </c>
       <c r="I215" s="7">
-        <f>H215*G215</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -52685,7 +53426,7 @@
         <v>700</v>
       </c>
       <c r="I216" s="7">
-        <f>H216*G216</f>
+        <f t="shared" si="3"/>
         <v>46200</v>
       </c>
     </row>
@@ -52715,7 +53456,7 @@
         <v>1300</v>
       </c>
       <c r="I217" s="7">
-        <f>H217*G217</f>
+        <f t="shared" si="3"/>
         <v>102700</v>
       </c>
     </row>
@@ -52745,7 +53486,7 @@
         <v>3000</v>
       </c>
       <c r="I218" s="7">
-        <f>H218*G218</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -52775,7 +53516,7 @@
         <v>7000</v>
       </c>
       <c r="I219" s="7">
-        <f>H219*G219</f>
+        <f t="shared" si="3"/>
         <v>357000</v>
       </c>
     </row>
@@ -52805,7 +53546,7 @@
         <v>1500</v>
       </c>
       <c r="I220" s="7">
-        <f>H220*G220</f>
+        <f t="shared" si="3"/>
         <v>123000</v>
       </c>
     </row>
@@ -52835,7 +53576,7 @@
         <v>2500</v>
       </c>
       <c r="I221" s="7">
-        <f>H221*G221</f>
+        <f t="shared" si="3"/>
         <v>155000</v>
       </c>
     </row>
@@ -52865,7 +53606,7 @@
         <v>700</v>
       </c>
       <c r="I222" s="7">
-        <f>H222*G222</f>
+        <f t="shared" si="3"/>
         <v>44100</v>
       </c>
     </row>
@@ -52895,7 +53636,7 @@
         <v>1000</v>
       </c>
       <c r="I223" s="7">
-        <f>H223*G223</f>
+        <f t="shared" si="3"/>
         <v>55000</v>
       </c>
     </row>
@@ -52925,7 +53666,7 @@
         <v>1000</v>
       </c>
       <c r="I224" s="7">
-        <f>H224*G224</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -52955,7 +53696,7 @@
         <v>1500</v>
       </c>
       <c r="I225" s="7">
-        <f>H225*G225</f>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
     </row>
@@ -52985,7 +53726,7 @@
         <v>3000</v>
       </c>
       <c r="I226" s="7">
-        <f>H226*G226</f>
+        <f t="shared" si="3"/>
         <v>177000</v>
       </c>
     </row>
@@ -53015,7 +53756,7 @@
         <v>1000</v>
       </c>
       <c r="I227" s="7">
-        <f>H227*G227</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -53045,7 +53786,7 @@
         <v>800</v>
       </c>
       <c r="I228" s="7">
-        <f>H228*G228</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -53075,7 +53816,7 @@
         <v>5000</v>
       </c>
       <c r="I229" s="7">
-        <f>H229*G229</f>
+        <f t="shared" si="3"/>
         <v>375000</v>
       </c>
     </row>
@@ -53105,7 +53846,7 @@
         <v>1000</v>
       </c>
       <c r="I230" s="7">
-        <f>H230*G230</f>
+        <f t="shared" si="3"/>
         <v>77000</v>
       </c>
     </row>
@@ -53135,7 +53876,7 @@
         <v>1500</v>
       </c>
       <c r="I231" s="7">
-        <f>H231*G231</f>
+        <f t="shared" si="3"/>
         <v>121500</v>
       </c>
     </row>
@@ -53165,7 +53906,7 @@
         <v>1500</v>
       </c>
       <c r="I232" s="7">
-        <f>H232*G232</f>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
@@ -53195,7 +53936,7 @@
         <v>1000</v>
       </c>
       <c r="I233" s="7">
-        <f>H233*G233</f>
+        <f t="shared" si="3"/>
         <v>97000</v>
       </c>
     </row>
@@ -53225,7 +53966,7 @@
         <v>1500</v>
       </c>
       <c r="I234" s="7">
-        <f>H234*G234</f>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
@@ -53255,7 +53996,7 @@
         <v>1200</v>
       </c>
       <c r="I235" s="7">
-        <f>H235*G235</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -53285,7 +54026,7 @@
         <v>2500</v>
       </c>
       <c r="I236" s="7">
-        <f>H236*G236</f>
+        <f t="shared" si="3"/>
         <v>205000</v>
       </c>
     </row>
@@ -53315,7 +54056,7 @@
         <v>1300</v>
       </c>
       <c r="I237" s="7">
-        <f>H237*G237</f>
+        <f t="shared" si="3"/>
         <v>80600</v>
       </c>
     </row>
@@ -53345,7 +54086,7 @@
         <v>600</v>
       </c>
       <c r="I238" s="7">
-        <f>H238*G238</f>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
@@ -53375,7 +54116,7 @@
         <v>1500</v>
       </c>
       <c r="I239" s="7">
-        <f>H239*G239</f>
+        <f t="shared" si="3"/>
         <v>93000</v>
       </c>
     </row>
@@ -53405,7 +54146,7 @@
         <v>500</v>
       </c>
       <c r="I240" s="7">
-        <f>H240*G240</f>
+        <f t="shared" si="3"/>
         <v>33500</v>
       </c>
     </row>
@@ -53435,7 +54176,7 @@
         <v>1500</v>
       </c>
       <c r="I241" s="7">
-        <f>H241*G241</f>
+        <f t="shared" si="3"/>
         <v>109500</v>
       </c>
     </row>
@@ -53465,7 +54206,7 @@
         <v>1500</v>
       </c>
       <c r="I242" s="7">
-        <f>H242*G242</f>
+        <f t="shared" si="3"/>
         <v>85500</v>
       </c>
     </row>
@@ -53495,7 +54236,7 @@
         <v>2800</v>
       </c>
       <c r="I243" s="7">
-        <f>H243*G243</f>
+        <f t="shared" si="3"/>
         <v>260400</v>
       </c>
     </row>
@@ -53525,7 +54266,7 @@
         <v>1500</v>
       </c>
       <c r="I244" s="7">
-        <f>H244*G244</f>
+        <f t="shared" si="3"/>
         <v>139500</v>
       </c>
     </row>
@@ -53555,7 +54296,7 @@
         <v>1000</v>
       </c>
       <c r="I245" s="7">
-        <f>H245*G245</f>
+        <f t="shared" si="3"/>
         <v>95000</v>
       </c>
     </row>
@@ -53585,7 +54326,7 @@
         <v>1800</v>
       </c>
       <c r="I246" s="7">
-        <f>H246*G246</f>
+        <f t="shared" si="3"/>
         <v>106200</v>
       </c>
     </row>
@@ -53615,7 +54356,7 @@
         <v>1000</v>
       </c>
       <c r="I247" s="7">
-        <f>H247*G247</f>
+        <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
@@ -53645,7 +54386,7 @@
         <v>15000</v>
       </c>
       <c r="I248" s="7">
-        <f>H248*G248</f>
+        <f t="shared" si="3"/>
         <v>1020000</v>
       </c>
     </row>
@@ -53675,7 +54416,7 @@
         <v>1500</v>
       </c>
       <c r="I249" s="7">
-        <f>H249*G249</f>
+        <f t="shared" si="3"/>
         <v>111000</v>
       </c>
     </row>
@@ -53705,7 +54446,7 @@
         <v>2500</v>
       </c>
       <c r="I250" s="7">
-        <f>H250*G250</f>
+        <f t="shared" si="3"/>
         <v>215000</v>
       </c>
     </row>
@@ -53735,7 +54476,7 @@
         <v>1200</v>
       </c>
       <c r="I251" s="7">
-        <f>H251*G251</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -53765,7 +54506,7 @@
         <v>1500</v>
       </c>
       <c r="I252" s="7">
-        <f>H252*G252</f>
+        <f t="shared" si="3"/>
         <v>81000</v>
       </c>
     </row>
@@ -53795,7 +54536,7 @@
         <v>1000</v>
       </c>
       <c r="I253" s="7">
-        <f>H253*G253</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -53825,7 +54566,7 @@
         <v>1500</v>
       </c>
       <c r="I254" s="7">
-        <f>H254*G254</f>
+        <f t="shared" si="3"/>
         <v>130500</v>
       </c>
     </row>
@@ -53855,7 +54596,7 @@
         <v>1200</v>
       </c>
       <c r="I255" s="7">
-        <f>H255*G255</f>
+        <f t="shared" si="3"/>
         <v>111600</v>
       </c>
     </row>
@@ -53885,7 +54626,7 @@
         <v>1000</v>
       </c>
       <c r="I256" s="7">
-        <f>H256*G256</f>
+        <f t="shared" si="3"/>
         <v>88000</v>
       </c>
     </row>
@@ -53915,7 +54656,7 @@
         <v>5000</v>
       </c>
       <c r="I257" s="7">
-        <f>H257*G257</f>
+        <f t="shared" si="3"/>
         <v>460000</v>
       </c>
     </row>
@@ -53945,7 +54686,7 @@
         <v>500</v>
       </c>
       <c r="I258" s="7">
-        <f>H258*G258</f>
+        <f t="shared" ref="I258:I321" si="4">H258*G258</f>
         <v>38500</v>
       </c>
     </row>
@@ -53975,7 +54716,7 @@
         <v>1500</v>
       </c>
       <c r="I259" s="7">
-        <f>H259*G259</f>
+        <f t="shared" si="4"/>
         <v>133500</v>
       </c>
     </row>
@@ -54005,7 +54746,7 @@
         <v>1000</v>
       </c>
       <c r="I260" s="9">
-        <f>H260*G260</f>
+        <f t="shared" si="4"/>
         <v>77000</v>
       </c>
     </row>
@@ -54255,17 +54996,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="16">
         <v>43101</v>
       </c>
       <c r="B1" t="s">
@@ -54279,7 +55020,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>43101</v>
       </c>
       <c r="B2" t="s">
@@ -54293,7 +55034,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>43132</v>
       </c>
       <c r="B3" t="s">
@@ -54307,7 +55048,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>43132</v>
       </c>
       <c r="B4" t="s">
@@ -54321,7 +55062,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>43160</v>
       </c>
       <c r="B5" t="s">
@@ -54335,7 +55076,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>43160</v>
       </c>
       <c r="B6" t="s">
@@ -54349,7 +55090,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>43191</v>
       </c>
       <c r="B7" t="s">
@@ -54363,7 +55104,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43191</v>
       </c>
       <c r="B8" t="s">
@@ -54377,7 +55118,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>43221</v>
       </c>
       <c r="B9" t="s">
@@ -54391,7 +55132,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>43221</v>
       </c>
       <c r="B10" t="s">
@@ -54405,7 +55146,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>43252</v>
       </c>
       <c r="B11" t="s">
@@ -54419,7 +55160,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>43252</v>
       </c>
       <c r="B12" t="s">
@@ -54433,7 +55174,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>43282</v>
       </c>
       <c r="B13" t="s">
@@ -54447,7 +55188,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>43282</v>
       </c>
       <c r="B14" t="s">
@@ -54461,7 +55202,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>43313</v>
       </c>
       <c r="B15" t="s">
@@ -54475,7 +55216,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>43313</v>
       </c>
       <c r="B16" t="s">
@@ -54489,7 +55230,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>43344</v>
       </c>
       <c r="B17" t="s">
@@ -54503,7 +55244,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>43344</v>
       </c>
       <c r="B18" t="s">
@@ -54517,7 +55258,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>43374</v>
       </c>
       <c r="B19" t="s">
@@ -54531,7 +55272,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>43374</v>
       </c>
       <c r="B20" t="s">
@@ -54545,7 +55286,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>43405</v>
       </c>
       <c r="B21" t="s">
@@ -54559,7 +55300,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>43405</v>
       </c>
       <c r="B22" t="s">
@@ -54573,7 +55314,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>43435</v>
       </c>
       <c r="B23" t="s">
@@ -54587,7 +55328,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>43435</v>
       </c>
       <c r="B24" t="s">
@@ -54604,4 +55345,2646 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G237"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>782</v>
+      </c>
+      <c r="C6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>750</v>
+      </c>
+      <c r="C16" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>630</v>
+      </c>
+      <c r="C26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>699</v>
+      </c>
+      <c r="C28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B30" t="s">
+        <v>672</v>
+      </c>
+      <c r="C30" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B31" t="s">
+        <v>640</v>
+      </c>
+      <c r="C31" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C32" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B33" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B35" t="s">
+        <v>659</v>
+      </c>
+      <c r="C35" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B36" t="s">
+        <v>499</v>
+      </c>
+      <c r="C36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>418</v>
+      </c>
+      <c r="C37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B38" t="s">
+        <v>492</v>
+      </c>
+      <c r="C38" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>760</v>
+      </c>
+      <c r="C39" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B41" t="s">
+        <v>861</v>
+      </c>
+      <c r="C41" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B42" t="s">
+        <v>532</v>
+      </c>
+      <c r="C42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B43" t="s">
+        <v>627</v>
+      </c>
+      <c r="C43" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B46" t="s">
+        <v>839</v>
+      </c>
+      <c r="C46" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B47" t="s">
+        <v>374</v>
+      </c>
+      <c r="C47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C51" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B52" t="s">
+        <v>683</v>
+      </c>
+      <c r="C52" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>798</v>
+      </c>
+      <c r="C55" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B57" t="s">
+        <v>385</v>
+      </c>
+      <c r="C57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B58" t="s">
+        <v>377</v>
+      </c>
+      <c r="C58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B59" t="s">
+        <v>575</v>
+      </c>
+      <c r="C59" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B61" t="s">
+        <v>427</v>
+      </c>
+      <c r="C61" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B62" t="s">
+        <v>586</v>
+      </c>
+      <c r="C62" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B63" t="s">
+        <v>421</v>
+      </c>
+      <c r="C63" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B64" t="s">
+        <v>670</v>
+      </c>
+      <c r="C64" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>787</v>
+      </c>
+      <c r="C65" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>741</v>
+      </c>
+      <c r="C66" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="18" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B70" t="s">
+        <v>490</v>
+      </c>
+      <c r="C70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="18" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B74" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B76" t="s">
+        <v>735</v>
+      </c>
+      <c r="C76" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="18" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="18" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B79" t="s">
+        <v>409</v>
+      </c>
+      <c r="C79" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="18" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="18" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="18" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B86" t="s">
+        <v>458</v>
+      </c>
+      <c r="C86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B87" t="s">
+        <v>811</v>
+      </c>
+      <c r="C87" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="18" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B88" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="18" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B89" t="s">
+        <v>727</v>
+      </c>
+      <c r="C89" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B90" t="s">
+        <v>469</v>
+      </c>
+      <c r="C90" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="18" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="18" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B92" t="s">
+        <v>511</v>
+      </c>
+      <c r="C92" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="18" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B94" t="s">
+        <v>435</v>
+      </c>
+      <c r="C94" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="18" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B95" t="s">
+        <v>516</v>
+      </c>
+      <c r="C95" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B96" t="s">
+        <v>573</v>
+      </c>
+      <c r="C96" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B97" t="s">
+        <v>636</v>
+      </c>
+      <c r="C97" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="18" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="18" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B99" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="18" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B100" t="s">
+        <v>725</v>
+      </c>
+      <c r="C100" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="18" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B101" t="s">
+        <v>653</v>
+      </c>
+      <c r="C101" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="18" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="18" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="18" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B105" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="18" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B106" t="s">
+        <v>772</v>
+      </c>
+      <c r="C106" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="18" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B107" t="s">
+        <v>715</v>
+      </c>
+      <c r="C107" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="18" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B108" t="s">
+        <v>447</v>
+      </c>
+      <c r="C108" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B109" t="s">
+        <v>392</v>
+      </c>
+      <c r="C109" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="18" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B110" t="s">
+        <v>685</v>
+      </c>
+      <c r="C110" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B111" t="s">
+        <v>581</v>
+      </c>
+      <c r="C111" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="18" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="18" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B113" t="s">
+        <v>396</v>
+      </c>
+      <c r="C113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="18" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B115" t="s">
+        <v>604</v>
+      </c>
+      <c r="C115" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="18" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B116" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="18" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B117" t="s">
+        <v>706</v>
+      </c>
+      <c r="C117" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="18" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B118" t="s">
+        <v>835</v>
+      </c>
+      <c r="C118" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="18" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B119" t="s">
+        <v>505</v>
+      </c>
+      <c r="C119" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="18" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B120" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="18" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B121" t="s">
+        <v>808</v>
+      </c>
+      <c r="C121" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="18" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B122" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="18" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B123" t="s">
+        <v>764</v>
+      </c>
+      <c r="C123" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="18" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="18" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="18" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B126" t="s">
+        <v>633</v>
+      </c>
+      <c r="C126" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="18" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B127" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B128" t="s">
+        <v>719</v>
+      </c>
+      <c r="C128" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="18" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B129" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="18" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B130" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="18" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B131" t="s">
+        <v>342</v>
+      </c>
+      <c r="C131" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="18" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B132" t="s">
+        <v>613</v>
+      </c>
+      <c r="C132" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="18" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B133" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B134" t="s">
+        <v>565</v>
+      </c>
+      <c r="C134" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="18" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B135" t="s">
+        <v>461</v>
+      </c>
+      <c r="C135" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B136" t="s">
+        <v>570</v>
+      </c>
+      <c r="C136" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="18" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="18" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C138" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="18" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B139" t="s">
+        <v>189</v>
+      </c>
+      <c r="C139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="18" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B140" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="18" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B141" t="s">
+        <v>579</v>
+      </c>
+      <c r="C141" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="18" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B142" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="18" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>795</v>
+      </c>
+      <c r="C143" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="18" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B144" t="s">
+        <v>692</v>
+      </c>
+      <c r="C144" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="18" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B145" t="s">
+        <v>350</v>
+      </c>
+      <c r="C145" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="18" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B147" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="18" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B148" t="s">
+        <v>609</v>
+      </c>
+      <c r="C148" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="18" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="18" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B150" t="s">
+        <v>402</v>
+      </c>
+      <c r="C150" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="18" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B151" t="s">
+        <v>643</v>
+      </c>
+      <c r="C151" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B152" t="s">
+        <v>624</v>
+      </c>
+      <c r="C152" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="18" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B153" t="s">
+        <v>226</v>
+      </c>
+      <c r="C153" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="18" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B154" t="s">
+        <v>229</v>
+      </c>
+      <c r="C154" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="18" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B155" t="s">
+        <v>820</v>
+      </c>
+      <c r="C155" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="18" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B156" t="s">
+        <v>330</v>
+      </c>
+      <c r="C156" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="18" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B157" t="s">
+        <v>666</v>
+      </c>
+      <c r="C157" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="18" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B158" t="s">
+        <v>294</v>
+      </c>
+      <c r="C158" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B159" t="s">
+        <v>833</v>
+      </c>
+      <c r="C159" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="18" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B160" t="s">
+        <v>850</v>
+      </c>
+      <c r="C160" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="18" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B161" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="18" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B162" t="s">
+        <v>482</v>
+      </c>
+      <c r="C162" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="18" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B163" t="s">
+        <v>747</v>
+      </c>
+      <c r="C163" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="18" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="18" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="18" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B166" t="s">
+        <v>844</v>
+      </c>
+      <c r="C166" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="18" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B167" t="s">
+        <v>438</v>
+      </c>
+      <c r="C167" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="18" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B168" t="s">
+        <v>195</v>
+      </c>
+      <c r="C168" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="18" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B169" t="s">
+        <v>429</v>
+      </c>
+      <c r="C169" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="18" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B170" t="s">
+        <v>324</v>
+      </c>
+      <c r="C170" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="18" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B171" t="s">
+        <v>558</v>
+      </c>
+      <c r="C171" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="18" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B172" t="s">
+        <v>302</v>
+      </c>
+      <c r="C172" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="18" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="18" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B174" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="18" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B175" t="s">
+        <v>278</v>
+      </c>
+      <c r="C175" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="18" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B176" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="18" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B177" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="18" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="18" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B179" t="s">
+        <v>508</v>
+      </c>
+      <c r="C179" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="18" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B180" t="s">
+        <v>217</v>
+      </c>
+      <c r="C180" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="18" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B181" t="s">
+        <v>702</v>
+      </c>
+      <c r="C181" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="18" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B182" t="s">
+        <v>347</v>
+      </c>
+      <c r="C182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="18" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B183" t="s">
+        <v>133</v>
+      </c>
+      <c r="C183" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="18" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B185" t="s">
+        <v>237</v>
+      </c>
+      <c r="C185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="18" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B186" t="s">
+        <v>618</v>
+      </c>
+      <c r="C186" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="18" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B187" t="s">
+        <v>213</v>
+      </c>
+      <c r="C187" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="18" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B188" t="s">
+        <v>111</v>
+      </c>
+      <c r="C188" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B189" t="s">
+        <v>485</v>
+      </c>
+      <c r="C189" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="18" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B190" t="s">
+        <v>646</v>
+      </c>
+      <c r="C190" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B191" t="s">
+        <v>544</v>
+      </c>
+      <c r="C191" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="18" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B192" t="s">
+        <v>455</v>
+      </c>
+      <c r="C192" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="18" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B193" t="s">
+        <v>220</v>
+      </c>
+      <c r="C193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B194" t="s">
+        <v>321</v>
+      </c>
+      <c r="C194" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="18" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B195" t="s">
+        <v>120</v>
+      </c>
+      <c r="C195" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B196" t="s">
+        <v>273</v>
+      </c>
+      <c r="C196" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="18" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B197" t="s">
+        <v>264</v>
+      </c>
+      <c r="C197" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="18" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="18" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B199" t="s">
+        <v>99</v>
+      </c>
+      <c r="C199" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B200" t="s">
+        <v>774</v>
+      </c>
+      <c r="C200" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="18" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B201" t="s">
+        <v>74</v>
+      </c>
+      <c r="C201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="18" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B202" t="s">
+        <v>597</v>
+      </c>
+      <c r="C202" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="18" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B203" t="s">
+        <v>388</v>
+      </c>
+      <c r="C203" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="18" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B204" t="s">
+        <v>127</v>
+      </c>
+      <c r="C204" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="18" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B205" t="s">
+        <v>250</v>
+      </c>
+      <c r="C205" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B206" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="18" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B207" t="s">
+        <v>476</v>
+      </c>
+      <c r="C207" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="18" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B208" t="s">
+        <v>108</v>
+      </c>
+      <c r="C208" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="18" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B209" t="s">
+        <v>93</v>
+      </c>
+      <c r="C209" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="18" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B210" t="s">
+        <v>767</v>
+      </c>
+      <c r="C210" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="18" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B211" t="s">
+        <v>590</v>
+      </c>
+      <c r="C211" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B212" t="s">
+        <v>363</v>
+      </c>
+      <c r="C212" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="18" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B213" t="s">
+        <v>159</v>
+      </c>
+      <c r="C213" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="18" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B214" t="s">
+        <v>805</v>
+      </c>
+      <c r="C214" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="18" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="18" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B216" t="s">
+        <v>200</v>
+      </c>
+      <c r="C216" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="18" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B217" t="s">
+        <v>538</v>
+      </c>
+      <c r="C217" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="18" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B218" t="s">
+        <v>529</v>
+      </c>
+      <c r="C218" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="18" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B219" t="s">
+        <v>432</v>
+      </c>
+      <c r="C219" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="18" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B220" t="s">
+        <v>117</v>
+      </c>
+      <c r="C220" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="18" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B221" t="s">
+        <v>656</v>
+      </c>
+      <c r="C221" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="18" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B222" t="s">
+        <v>90</v>
+      </c>
+      <c r="C222" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B223" t="s">
+        <v>258</v>
+      </c>
+      <c r="C223" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="18" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B224" t="s">
+        <v>827</v>
+      </c>
+      <c r="C224" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="18" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B225" t="s">
+        <v>535</v>
+      </c>
+      <c r="C225" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="18" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B226" t="s">
+        <v>472</v>
+      </c>
+      <c r="C226" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="18" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B227" t="s">
+        <v>71</v>
+      </c>
+      <c r="C227" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="18" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B228" t="s">
+        <v>287</v>
+      </c>
+      <c r="C228" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="18" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B229" t="s">
+        <v>814</v>
+      </c>
+      <c r="C229" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="18" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B230" t="s">
+        <v>502</v>
+      </c>
+      <c r="C230" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="18" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B231" t="s">
+        <v>156</v>
+      </c>
+      <c r="C231" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B232" t="s">
+        <v>173</v>
+      </c>
+      <c r="C232" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="18" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B233" t="s">
+        <v>479</v>
+      </c>
+      <c r="C233" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="18" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B234" t="s">
+        <v>549</v>
+      </c>
+      <c r="C234" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="18" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B235" t="s">
+        <v>65</v>
+      </c>
+      <c r="C235" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="18" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B236" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="18" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B237" t="s">
+        <v>556</v>
+      </c>
+      <c r="C237" t="s">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>